--- a/src/main/resources/data/allecijfers/overzicht-nieuwegein.xlsx
+++ b/src/main/resources/data/allecijfers/overzicht-nieuwegein.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Documents\LearnDiTwins\src\main\resources\data\allecijfers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\IdeaProjects\LearnDiTwins\src\main\resources\data\allecijfers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B5EDEC-B00E-4AFB-A2A5-DAE258B3E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CB8C2D-E530-4ADE-A71C-F945EFBB57B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1956" windowWidth="22788" windowHeight="10284" xr2:uid="{50057F15-3147-432A-8EDA-956F5D835F7B}"/>
+    <workbookView xWindow="630" yWindow="0" windowWidth="23835" windowHeight="21000" activeTab="4" xr2:uid="{50057F15-3147-432A-8EDA-956F5D835F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="inwoneraantal" sheetId="4" r:id="rId1"/>
     <sheet name="Jonger dan 15" sheetId="1" r:id="rId2"/>
     <sheet name="Ouder dan 65" sheetId="2" r:id="rId3"/>
     <sheet name="huishouden" sheetId="3" r:id="rId4"/>
+    <sheet name="bevolkinsdichtheid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="125">
   <si>
     <t>Leeftijd jonger dan 15 % Nieuwegein</t>
   </si>
@@ -412,6 +413,9 @@
   <si>
     <t>Aantal inwoners Nieuwegein</t>
   </si>
+  <si>
+    <t>Gemiddelde bevolkingsdichtheid Nieuwegein</t>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -494,6 +498,7 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -810,13 +815,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D50EA1B-AF4C-4F99-94A7-8CF51CB4A469}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="O63" sqref="O2:O63"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -863,7 +868,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,7 +905,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,7 +952,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -994,7 +999,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1046,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1187,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1229,7 +1234,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1323,7 +1328,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1553,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1642,7 +1647,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1689,7 +1694,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1783,7 +1788,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1830,7 +1835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1867,7 +1872,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1992,7 +1997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -2039,7 +2044,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2086,7 +2091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>65426</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2225,7 +2230,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -2319,7 +2324,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2361,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -2403,7 +2408,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -2591,7 +2596,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -2638,7 +2643,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -2732,7 +2737,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -2779,7 +2784,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -2826,7 +2831,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -2873,7 +2878,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2920,7 +2925,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -2967,7 +2972,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -3014,7 +3019,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -3061,7 +3066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -3155,7 +3160,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -3202,7 +3207,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -3249,7 +3254,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3296,7 +3301,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -3343,7 +3348,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3390,7 +3395,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -3437,7 +3442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>8205</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -3578,7 +3583,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -3672,7 +3677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -3732,9 +3737,9 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3786,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3818,7 +3823,7 @@
         <v>6.2146892655367228E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3865,7 +3870,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3912,7 +3917,7 @@
         <v>0.12684989429175481</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3959,7 +3964,7 @@
         <v>0.1825922421948912</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4006,7 +4011,7 @@
         <v>0.15543071161048691</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4053,7 +4058,7 @@
         <v>0.18362662586074979</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -4100,7 +4105,7 @@
         <v>0.1064935064935065</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -4147,7 +4152,7 @@
         <v>0.18388791593695269</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>9.4955489614243327E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -4241,7 +4246,7 @@
         <v>0.15456989247311831</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -4288,7 +4293,7 @@
         <v>0.18656716417910449</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -4335,7 +4340,7 @@
         <v>0.14867109634551501</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>9.9009900990099015E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -4419,7 +4424,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>0.15267175572519079</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -4513,7 +4518,7 @@
         <v>0.1831275720164609</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -4560,7 +4565,7 @@
         <v>0.145021645021645</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>0.1560826319816373</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -4654,7 +4659,7 @@
         <v>0.18867924528301891</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4701,7 +4706,7 @@
         <v>0.2024922118380062</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -4744,7 +4749,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -4781,7 +4786,7 @@
         <v>9.9009900990099015E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -4828,7 +4833,7 @@
         <v>0.17064220183486239</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -4859,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4906,7 +4911,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -4953,7 +4958,7 @@
         <v>0.14700854700854701</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -4996,7 +5001,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -5043,7 +5048,7 @@
         <v>0.18995633187772931</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -5088,7 +5093,7 @@
         <v>0.15365451043927489</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -5135,7 +5140,7 @@
         <v>0.18535469107551489</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -5225,7 +5230,7 @@
         <v>0.1064935064935065</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -5262,7 +5267,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -5309,7 +5314,7 @@
         <v>0.16621253405994549</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -5356,7 +5361,7 @@
         <v>0.12654320987654319</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>0.21084337349397589</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -5497,7 +5502,7 @@
         <v>0.1476608187134503</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -5544,7 +5549,7 @@
         <v>0.15789473684210531</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -5587,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -5634,7 +5639,7 @@
         <v>0.12654320987654319</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -5681,7 +5686,7 @@
         <v>0.1387959866220736</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -5728,7 +5733,7 @@
         <v>0.1447084233261339</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -5775,7 +5780,7 @@
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -5822,7 +5827,7 @@
         <v>0.16431924882629109</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -5869,7 +5874,7 @@
         <v>0.1192170818505338</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -5916,7 +5921,7 @@
         <v>0.15970961887477311</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -5963,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -6010,7 +6015,7 @@
         <v>9.4955489614243327E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -6057,7 +6062,7 @@
         <v>0.18995633187772931</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -6104,7 +6109,7 @@
         <v>0.20033388981636061</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -6151,7 +6156,7 @@
         <v>0.1705202312138728</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -6198,7 +6203,7 @@
         <v>0.16370106761565839</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -6245,7 +6250,7 @@
         <v>0.16260162601626019</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -6292,7 +6297,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -6335,7 +6340,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -6382,7 +6387,7 @@
         <v>0.12606577344701581</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -6429,7 +6434,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -6476,7 +6481,7 @@
         <v>0.141566265060241</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>0.1197478991596639</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -6566,7 +6571,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -6626,9 +6631,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -6675,7 +6680,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -6712,7 +6717,7 @@
         <v>6.7796610169491525E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -6759,7 +6764,7 @@
         <v>0.1051136363636364</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6806,7 +6811,7 @@
         <v>0.27484143763213531</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -6853,7 +6858,7 @@
         <v>0.21759697256386001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6900,7 +6905,7 @@
         <v>0.24531835205992511</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6947,7 +6952,7 @@
         <v>0.18056618209640399</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -6994,7 +6999,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -7041,7 +7046,7 @@
         <v>0.2136602451838879</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -7088,7 +7093,7 @@
         <v>0.40059347181008897</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -7135,7 +7140,7 @@
         <v>0.22110215053763441</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -7182,7 +7187,7 @@
         <v>0.23507462686567171</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -7229,7 +7234,7 @@
         <v>0.25249169435215951</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -7266,7 +7271,7 @@
         <v>8.9108910891089105E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -7313,7 +7318,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -7360,7 +7365,7 @@
         <v>0.23664122137404581</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -7454,7 +7459,7 @@
         <v>0.22727272727272729</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -7501,7 +7506,7 @@
         <v>0.21040550879877579</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -7548,7 +7553,7 @@
         <v>0.18867924528301891</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -7595,7 +7600,7 @@
         <v>0.1246105919003115</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -7638,7 +7643,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -7675,7 +7680,7 @@
         <v>8.9108910891089105E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -7722,7 +7727,7 @@
         <v>0.2293577981651376</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -7753,7 +7758,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -7800,7 +7805,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -7847,7 +7852,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -7890,7 +7895,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -7937,7 +7942,7 @@
         <v>0.16593886462882099</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>0.21338611561153059</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -8029,7 +8034,7 @@
         <v>0.16475972540045769</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -8072,7 +8077,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -8119,7 +8124,7 @@
         <v>0.19740259740259741</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -8156,7 +8161,7 @@
         <v>6.5714285714285711E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -8203,7 +8208,7 @@
         <v>0.19618528610354219</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -8250,7 +8255,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -8297,7 +8302,7 @@
         <v>0.2289156626506024</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -8344,7 +8349,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -8391,7 +8396,7 @@
         <v>0.24853801169590639</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -8438,7 +8443,7 @@
         <v>0.24060150375939851</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -8481,7 +8486,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -8528,7 +8533,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -8575,7 +8580,7 @@
         <v>0.25585284280936449</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -8622,7 +8627,7 @@
         <v>0.27861771058315332</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -8669,7 +8674,7 @@
         <v>0.22189349112426041</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -8716,7 +8721,7 @@
         <v>0.20657276995305171</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -8763,7 +8768,7 @@
         <v>0.26512455516014227</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -8810,7 +8815,7 @@
         <v>0.18330308529945549</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -8857,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -8904,7 +8909,7 @@
         <v>0.40059347181008897</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -8951,7 +8956,7 @@
         <v>0.16593886462882099</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -8998,7 +9003,7 @@
         <v>0.23205342237061771</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -9045,7 +9050,7 @@
         <v>0.14739884393063579</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -9092,7 +9097,7 @@
         <v>0.25266903914590749</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -9139,7 +9144,7 @@
         <v>0.15609756097560981</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -9186,7 +9191,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -9229,7 +9234,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -9276,7 +9281,7 @@
         <v>0.27101096224116927</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -9323,7 +9328,7 @@
         <v>0.1051136363636364</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -9370,7 +9375,7 @@
         <v>0.25903614457831331</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -9417,7 +9422,7 @@
         <v>0.29831932773109238</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -9460,7 +9465,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -9516,13 +9521,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7283BD-7770-4B0C-B747-7DDDA9DD396A}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -9545,7 +9550,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -9566,7 +9571,7 @@
         <v>10018</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -9589,7 +9594,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
@@ -9612,7 +9617,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -9635,7 +9640,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -9658,7 +9663,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -9681,7 +9686,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -9704,7 +9709,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -9727,7 +9732,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -9750,7 +9755,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -9773,7 +9778,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -9796,7 +9801,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -9819,7 +9824,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -9842,7 +9847,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -9865,7 +9870,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -9888,7 +9893,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9911,7 +9916,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -9934,7 +9939,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -9957,7 +9962,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
@@ -9980,7 +9985,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
@@ -10003,7 +10008,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -10026,7 +10031,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -10049,7 +10054,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -10072,7 +10077,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -10095,7 +10100,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -10118,7 +10123,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
@@ -10141,7 +10146,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -10164,7 +10169,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -10187,7 +10192,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -10210,7 +10215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
@@ -10233,7 +10238,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -10256,7 +10261,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
@@ -10279,7 +10284,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -10302,7 +10307,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
@@ -10325,7 +10330,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -10348,7 +10353,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -10371,7 +10376,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -10394,7 +10399,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -10417,7 +10422,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -10440,7 +10445,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -10463,7 +10468,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -10486,7 +10491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -10509,7 +10514,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -10532,7 +10537,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -10555,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -10578,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -10601,7 +10606,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -10624,7 +10629,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -10647,7 +10652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -10670,7 +10675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -10693,7 +10698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -10716,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>84</v>
       </c>
@@ -10739,7 +10744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -10762,7 +10767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
@@ -10785,7 +10790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -10808,7 +10813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
@@ -10831,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -10854,7 +10859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
@@ -10877,7 +10882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -10900,7 +10905,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
@@ -10923,7 +10928,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -10946,7 +10951,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -10972,4 +10977,2897 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9B471-9358-4BBF-8A5A-B2245D2AC499}">
+  <dimension ref="A1:O63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+      <c r="J1">
+        <v>2018</v>
+      </c>
+      <c r="K1">
+        <v>2019</v>
+      </c>
+      <c r="L1">
+        <v>2020</v>
+      </c>
+      <c r="M1">
+        <v>2021</v>
+      </c>
+      <c r="N1">
+        <v>2022</v>
+      </c>
+      <c r="O1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>395</v>
+      </c>
+      <c r="K2">
+        <v>450</v>
+      </c>
+      <c r="L2">
+        <v>610</v>
+      </c>
+      <c r="M2">
+        <v>918</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1693</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2119</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2196</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2311</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2339</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2686</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3181</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3259</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3317</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3356</v>
+      </c>
+      <c r="O3" s="5">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5333</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5393</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5414</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5433</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5449</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5374</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5361</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5377</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4413</v>
+      </c>
+      <c r="N4" s="5">
+        <v>4429</v>
+      </c>
+      <c r="O4" s="5">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5564</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5578</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5573</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5718</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5644</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5671</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5736</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5740</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5792</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5889</v>
+      </c>
+      <c r="O5" s="5">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5432</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5437</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5413</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5455</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5473</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5446</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5487</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5494</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3881</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3828</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5123</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5082</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5064</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5170</v>
+      </c>
+      <c r="I7" s="5">
+        <v>5143</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5170</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5163</v>
+      </c>
+      <c r="L7" s="5">
+        <v>5193</v>
+      </c>
+      <c r="M7" s="5">
+        <v>5128</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5144</v>
+      </c>
+      <c r="O7" s="5">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5715</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5940</v>
+      </c>
+      <c r="G8" s="5">
+        <v>6248</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6497</v>
+      </c>
+      <c r="I8" s="5">
+        <v>6421</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6689</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6483</v>
+      </c>
+      <c r="L8" s="5">
+        <v>6454</v>
+      </c>
+      <c r="M8" s="5">
+        <v>6543</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6820</v>
+      </c>
+      <c r="O8" s="5">
+        <v>6987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5564</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5578</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5573</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5718</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5644</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5671</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5736</v>
+      </c>
+      <c r="L9" s="5">
+        <v>5740</v>
+      </c>
+      <c r="M9" s="5">
+        <v>6760</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6793</v>
+      </c>
+      <c r="O9" s="5">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3525</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3505</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3432</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3680</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3760</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3159</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3177</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3185</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3206</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3348</v>
+      </c>
+      <c r="O10" s="5">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5432</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5437</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5413</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5455</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5473</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5446</v>
+      </c>
+      <c r="K11" s="5">
+        <v>5487</v>
+      </c>
+      <c r="L11" s="5">
+        <v>5494</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5455</v>
+      </c>
+      <c r="N11" s="5">
+        <v>5436</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4374</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4352</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4399</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4464</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4487</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5292</v>
+      </c>
+      <c r="K12" s="5">
+        <v>5351</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5377</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5081</v>
+      </c>
+      <c r="N12" s="5">
+        <v>5158</v>
+      </c>
+      <c r="O12" s="5">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4466</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4481</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4472</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4440</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4448</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4451</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4527</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4547</v>
+      </c>
+      <c r="M13" s="5">
+        <v>4498</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4536</v>
+      </c>
+      <c r="O13" s="5">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>115</v>
+      </c>
+      <c r="K14">
+        <v>114</v>
+      </c>
+      <c r="L14">
+        <v>110</v>
+      </c>
+      <c r="M14">
+        <v>313</v>
+      </c>
+      <c r="N14">
+        <v>345</v>
+      </c>
+      <c r="O14">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>47</v>
+      </c>
+      <c r="J15">
+        <v>55</v>
+      </c>
+      <c r="K15">
+        <v>65</v>
+      </c>
+      <c r="L15">
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>38</v>
+      </c>
+      <c r="O15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1028</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1037</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1034</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1003</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1003</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1019</v>
+      </c>
+      <c r="K16">
+        <v>997</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1020</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1033</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1004</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5564</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5578</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5573</v>
+      </c>
+      <c r="H17" s="5">
+        <v>5718</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5644</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5671</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5736</v>
+      </c>
+      <c r="L17" s="5">
+        <v>5740</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4928</v>
+      </c>
+      <c r="N17" s="5">
+        <v>5075</v>
+      </c>
+      <c r="O17" s="5">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4466</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4481</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4472</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4440</v>
+      </c>
+      <c r="I18" s="5">
+        <v>4448</v>
+      </c>
+      <c r="J18" s="5">
+        <v>4451</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4527</v>
+      </c>
+      <c r="L18" s="5">
+        <v>4547</v>
+      </c>
+      <c r="M18" s="5">
+        <v>7329</v>
+      </c>
+      <c r="N18" s="5">
+        <v>7287</v>
+      </c>
+      <c r="O18" s="5">
+        <v>7335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5">
+        <v>6113</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6164</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6303</v>
+      </c>
+      <c r="H19" s="5">
+        <v>6341</v>
+      </c>
+      <c r="I19" s="5">
+        <v>6372</v>
+      </c>
+      <c r="J19" s="5">
+        <v>6395</v>
+      </c>
+      <c r="K19" s="5">
+        <v>6436</v>
+      </c>
+      <c r="L19" s="5">
+        <v>6570</v>
+      </c>
+      <c r="M19" s="5">
+        <v>6585</v>
+      </c>
+      <c r="N19" s="5">
+        <v>6524</v>
+      </c>
+      <c r="O19" s="5">
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5333</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5393</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5414</v>
+      </c>
+      <c r="H20" s="5">
+        <v>5433</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5449</v>
+      </c>
+      <c r="J20" s="5">
+        <v>5374</v>
+      </c>
+      <c r="K20" s="5">
+        <v>5361</v>
+      </c>
+      <c r="L20" s="5">
+        <v>5377</v>
+      </c>
+      <c r="M20" s="5">
+        <v>9618</v>
+      </c>
+      <c r="N20" s="5">
+        <v>10119</v>
+      </c>
+      <c r="O20" s="5">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5123</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5082</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5064</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5170</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5143</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5170</v>
+      </c>
+      <c r="K21" s="5">
+        <v>5163</v>
+      </c>
+      <c r="L21" s="5">
+        <v>5193</v>
+      </c>
+      <c r="M21" s="5">
+        <v>9241</v>
+      </c>
+      <c r="N21" s="5">
+        <v>9147</v>
+      </c>
+      <c r="O21" s="5">
+        <v>9447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>46</v>
+      </c>
+      <c r="G22">
+        <v>41</v>
+      </c>
+      <c r="H22">
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>37</v>
+      </c>
+      <c r="K22">
+        <v>46</v>
+      </c>
+      <c r="L22">
+        <v>46</v>
+      </c>
+      <c r="M22">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>46</v>
+      </c>
+      <c r="O22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23">
+        <v>115</v>
+      </c>
+      <c r="K23">
+        <v>114</v>
+      </c>
+      <c r="L23">
+        <v>110</v>
+      </c>
+      <c r="M23">
+        <v>313</v>
+      </c>
+      <c r="N23">
+        <v>345</v>
+      </c>
+      <c r="O23">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5123</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5082</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5064</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5170</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5143</v>
+      </c>
+      <c r="J24" s="5">
+        <v>5170</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5163</v>
+      </c>
+      <c r="L24" s="5">
+        <v>5193</v>
+      </c>
+      <c r="M24" s="5">
+        <v>3307</v>
+      </c>
+      <c r="N24" s="5">
+        <v>3333</v>
+      </c>
+      <c r="O24" s="5">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25">
+        <v>97</v>
+      </c>
+      <c r="N25">
+        <v>92</v>
+      </c>
+      <c r="O25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>51</v>
+      </c>
+      <c r="G26">
+        <v>46</v>
+      </c>
+      <c r="H26">
+        <v>44</v>
+      </c>
+      <c r="I26">
+        <v>47</v>
+      </c>
+      <c r="J26">
+        <v>55</v>
+      </c>
+      <c r="K26">
+        <v>65</v>
+      </c>
+      <c r="L26">
+        <v>38</v>
+      </c>
+      <c r="M26">
+        <v>38</v>
+      </c>
+      <c r="N26">
+        <v>38</v>
+      </c>
+      <c r="O26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5432</v>
+      </c>
+      <c r="F27" s="5">
+        <v>5437</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5413</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5455</v>
+      </c>
+      <c r="I27" s="5">
+        <v>5473</v>
+      </c>
+      <c r="J27" s="5">
+        <v>5446</v>
+      </c>
+      <c r="K27" s="5">
+        <v>5487</v>
+      </c>
+      <c r="L27" s="5">
+        <v>5494</v>
+      </c>
+      <c r="M27" s="5">
+        <v>7889</v>
+      </c>
+      <c r="N27" s="5">
+        <v>7808</v>
+      </c>
+      <c r="O27" s="5">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7065</v>
+      </c>
+      <c r="F29" s="5">
+        <v>7139</v>
+      </c>
+      <c r="G29" s="5">
+        <v>7126</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7191</v>
+      </c>
+      <c r="I29" s="5">
+        <v>7229</v>
+      </c>
+      <c r="J29" s="5">
+        <v>7118</v>
+      </c>
+      <c r="K29" s="5">
+        <v>7102</v>
+      </c>
+      <c r="L29" s="5">
+        <v>7150</v>
+      </c>
+      <c r="M29" s="5">
+        <v>7361</v>
+      </c>
+      <c r="N29" s="5">
+        <v>7343</v>
+      </c>
+      <c r="O29" s="5">
+        <v>7359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2576</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2582</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2592</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2620</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2625</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2656</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2682</v>
+      </c>
+      <c r="L30" s="5">
+        <v>2700</v>
+      </c>
+      <c r="M30" s="5">
+        <v>2717</v>
+      </c>
+      <c r="N30" s="5">
+        <v>2757</v>
+      </c>
+      <c r="O30" s="5">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="5">
+        <v>5123</v>
+      </c>
+      <c r="F31" s="5">
+        <v>5082</v>
+      </c>
+      <c r="G31" s="5">
+        <v>5064</v>
+      </c>
+      <c r="H31" s="5">
+        <v>5170</v>
+      </c>
+      <c r="I31" s="5">
+        <v>5143</v>
+      </c>
+      <c r="J31" s="5">
+        <v>5170</v>
+      </c>
+      <c r="K31" s="5">
+        <v>5163</v>
+      </c>
+      <c r="L31" s="5">
+        <v>5193</v>
+      </c>
+      <c r="M31" s="5">
+        <v>8250</v>
+      </c>
+      <c r="N31" s="5">
+        <v>8310</v>
+      </c>
+      <c r="O31" s="5">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>27</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <v>27</v>
+      </c>
+      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="J32">
+        <v>24</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>23</v>
+      </c>
+      <c r="O32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5715</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5940</v>
+      </c>
+      <c r="G33" s="5">
+        <v>6248</v>
+      </c>
+      <c r="H33" s="5">
+        <v>6497</v>
+      </c>
+      <c r="I33" s="5">
+        <v>6421</v>
+      </c>
+      <c r="J33" s="5">
+        <v>6689</v>
+      </c>
+      <c r="K33" s="5">
+        <v>6483</v>
+      </c>
+      <c r="L33" s="5">
+        <v>6454</v>
+      </c>
+      <c r="M33" s="5">
+        <v>6543</v>
+      </c>
+      <c r="N33" s="5">
+        <v>6820</v>
+      </c>
+      <c r="O33" s="5">
+        <v>6987</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>395</v>
+      </c>
+      <c r="K34">
+        <v>450</v>
+      </c>
+      <c r="L34">
+        <v>610</v>
+      </c>
+      <c r="M34">
+        <v>918</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1693</v>
+      </c>
+      <c r="O34" s="5">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5432</v>
+      </c>
+      <c r="F35" s="5">
+        <v>5437</v>
+      </c>
+      <c r="G35" s="5">
+        <v>5413</v>
+      </c>
+      <c r="H35" s="5">
+        <v>5455</v>
+      </c>
+      <c r="I35" s="5">
+        <v>5473</v>
+      </c>
+      <c r="J35" s="5">
+        <v>5446</v>
+      </c>
+      <c r="K35" s="5">
+        <v>5487</v>
+      </c>
+      <c r="L35" s="5">
+        <v>5494</v>
+      </c>
+      <c r="M35" s="5">
+        <v>6543</v>
+      </c>
+      <c r="N35" s="5">
+        <v>6440</v>
+      </c>
+      <c r="O35" s="5">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3004</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3279</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3414</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3538</v>
+      </c>
+      <c r="I36" s="5">
+        <v>3964</v>
+      </c>
+      <c r="J36" s="5">
+        <v>4563</v>
+      </c>
+      <c r="K36" s="5">
+        <v>5083</v>
+      </c>
+      <c r="L36" s="5">
+        <v>5108</v>
+      </c>
+      <c r="M36" s="5">
+        <v>4975</v>
+      </c>
+      <c r="N36" s="5">
+        <v>5143</v>
+      </c>
+      <c r="O36" s="5">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4374</v>
+      </c>
+      <c r="F37" s="5">
+        <v>4352</v>
+      </c>
+      <c r="G37" s="5">
+        <v>4399</v>
+      </c>
+      <c r="H37" s="5">
+        <v>4464</v>
+      </c>
+      <c r="I37" s="5">
+        <v>4487</v>
+      </c>
+      <c r="J37" s="5">
+        <v>5292</v>
+      </c>
+      <c r="K37" s="5">
+        <v>5351</v>
+      </c>
+      <c r="L37" s="5">
+        <v>5377</v>
+      </c>
+      <c r="M37" s="5">
+        <v>5686</v>
+      </c>
+      <c r="N37" s="5">
+        <v>5668</v>
+      </c>
+      <c r="O37" s="5">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38">
+        <v>59</v>
+      </c>
+      <c r="F38">
+        <v>55</v>
+      </c>
+      <c r="G38">
+        <v>61</v>
+      </c>
+      <c r="H38">
+        <v>69</v>
+      </c>
+      <c r="I38">
+        <v>81</v>
+      </c>
+      <c r="J38">
+        <v>83</v>
+      </c>
+      <c r="K38">
+        <v>82</v>
+      </c>
+      <c r="L38">
+        <v>75</v>
+      </c>
+      <c r="M38">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <v>33</v>
+      </c>
+      <c r="O38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="5">
+        <v>5333</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5393</v>
+      </c>
+      <c r="G39" s="5">
+        <v>5414</v>
+      </c>
+      <c r="H39" s="5">
+        <v>5433</v>
+      </c>
+      <c r="I39" s="5">
+        <v>5449</v>
+      </c>
+      <c r="J39" s="5">
+        <v>5374</v>
+      </c>
+      <c r="K39" s="5">
+        <v>5361</v>
+      </c>
+      <c r="L39" s="5">
+        <v>5377</v>
+      </c>
+      <c r="M39" s="5">
+        <v>5308</v>
+      </c>
+      <c r="N39" s="5">
+        <v>5366</v>
+      </c>
+      <c r="O39" s="5">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1028</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1037</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1034</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1003</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1003</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1019</v>
+      </c>
+      <c r="K40">
+        <v>997</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1020</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1033</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1004</v>
+      </c>
+      <c r="O40" s="5">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>26</v>
+      </c>
+      <c r="F41">
+        <v>27</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>27</v>
+      </c>
+      <c r="I41">
+        <v>27</v>
+      </c>
+      <c r="J41">
+        <v>24</v>
+      </c>
+      <c r="K41">
+        <v>27</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>25</v>
+      </c>
+      <c r="N41">
+        <v>23</v>
+      </c>
+      <c r="O41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3004</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3279</v>
+      </c>
+      <c r="G42" s="5">
+        <v>3414</v>
+      </c>
+      <c r="H42" s="5">
+        <v>3538</v>
+      </c>
+      <c r="I42" s="5">
+        <v>3964</v>
+      </c>
+      <c r="J42" s="5">
+        <v>4563</v>
+      </c>
+      <c r="K42" s="5">
+        <v>5083</v>
+      </c>
+      <c r="L42" s="5">
+        <v>5108</v>
+      </c>
+      <c r="M42" s="5">
+        <v>4975</v>
+      </c>
+      <c r="N42" s="5">
+        <v>5143</v>
+      </c>
+      <c r="O42" s="5">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="5">
+        <v>3462</v>
+      </c>
+      <c r="F43" s="5">
+        <v>3436</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3410</v>
+      </c>
+      <c r="H43" s="5">
+        <v>3427</v>
+      </c>
+      <c r="I43" s="5">
+        <v>3403</v>
+      </c>
+      <c r="J43" s="5">
+        <v>3386</v>
+      </c>
+      <c r="K43" s="5">
+        <v>3375</v>
+      </c>
+      <c r="L43" s="5">
+        <v>3368</v>
+      </c>
+      <c r="M43" s="5">
+        <v>7053</v>
+      </c>
+      <c r="N43" s="5">
+        <v>6929</v>
+      </c>
+      <c r="O43" s="5">
+        <v>6906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4466</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4481</v>
+      </c>
+      <c r="G44" s="5">
+        <v>4472</v>
+      </c>
+      <c r="H44" s="5">
+        <v>4440</v>
+      </c>
+      <c r="I44" s="5">
+        <v>4448</v>
+      </c>
+      <c r="J44" s="5">
+        <v>4451</v>
+      </c>
+      <c r="K44" s="5">
+        <v>4527</v>
+      </c>
+      <c r="L44" s="5">
+        <v>4547</v>
+      </c>
+      <c r="M44" s="5">
+        <v>3632</v>
+      </c>
+      <c r="N44" s="5">
+        <v>3703</v>
+      </c>
+      <c r="O44" s="5">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="5">
+        <v>7419</v>
+      </c>
+      <c r="F45" s="5">
+        <v>7374</v>
+      </c>
+      <c r="G45" s="5">
+        <v>7371</v>
+      </c>
+      <c r="H45" s="5">
+        <v>7346</v>
+      </c>
+      <c r="I45" s="5">
+        <v>7321</v>
+      </c>
+      <c r="J45" s="5">
+        <v>7280</v>
+      </c>
+      <c r="K45" s="5">
+        <v>7220</v>
+      </c>
+      <c r="L45" s="5">
+        <v>7286</v>
+      </c>
+      <c r="M45" s="5">
+        <v>6768</v>
+      </c>
+      <c r="N45" s="5">
+        <v>6929</v>
+      </c>
+      <c r="O45" s="5">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="5">
+        <v>6113</v>
+      </c>
+      <c r="F46" s="5">
+        <v>6164</v>
+      </c>
+      <c r="G46" s="5">
+        <v>6303</v>
+      </c>
+      <c r="H46" s="5">
+        <v>6341</v>
+      </c>
+      <c r="I46" s="5">
+        <v>6372</v>
+      </c>
+      <c r="J46" s="5">
+        <v>6395</v>
+      </c>
+      <c r="K46" s="5">
+        <v>6436</v>
+      </c>
+      <c r="L46" s="5">
+        <v>6570</v>
+      </c>
+      <c r="M46" s="5">
+        <v>5026</v>
+      </c>
+      <c r="N46" s="5">
+        <v>5082</v>
+      </c>
+      <c r="O46" s="5">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3462</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3436</v>
+      </c>
+      <c r="G47" s="5">
+        <v>3410</v>
+      </c>
+      <c r="H47" s="5">
+        <v>3427</v>
+      </c>
+      <c r="I47" s="5">
+        <v>3403</v>
+      </c>
+      <c r="J47" s="5">
+        <v>3386</v>
+      </c>
+      <c r="K47" s="5">
+        <v>3375</v>
+      </c>
+      <c r="L47" s="5">
+        <v>3368</v>
+      </c>
+      <c r="M47" s="5">
+        <v>4166</v>
+      </c>
+      <c r="N47" s="5">
+        <v>4115</v>
+      </c>
+      <c r="O47" s="5">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="5">
+        <v>6113</v>
+      </c>
+      <c r="F48" s="5">
+        <v>6164</v>
+      </c>
+      <c r="G48" s="5">
+        <v>6303</v>
+      </c>
+      <c r="H48" s="5">
+        <v>6341</v>
+      </c>
+      <c r="I48" s="5">
+        <v>6372</v>
+      </c>
+      <c r="J48" s="5">
+        <v>6395</v>
+      </c>
+      <c r="K48" s="5">
+        <v>6436</v>
+      </c>
+      <c r="L48" s="5">
+        <v>6570</v>
+      </c>
+      <c r="M48" s="5">
+        <v>9552</v>
+      </c>
+      <c r="N48" s="5">
+        <v>9567</v>
+      </c>
+      <c r="O48" s="5">
+        <v>9563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3462</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3436</v>
+      </c>
+      <c r="G49" s="5">
+        <v>3410</v>
+      </c>
+      <c r="H49" s="5">
+        <v>3427</v>
+      </c>
+      <c r="I49" s="5">
+        <v>3403</v>
+      </c>
+      <c r="J49" s="5">
+        <v>3386</v>
+      </c>
+      <c r="K49" s="5">
+        <v>3375</v>
+      </c>
+      <c r="L49" s="5">
+        <v>3368</v>
+      </c>
+      <c r="M49">
+        <v>28</v>
+      </c>
+      <c r="N49">
+        <v>27</v>
+      </c>
+      <c r="O49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3525</v>
+      </c>
+      <c r="F50" s="5">
+        <v>3505</v>
+      </c>
+      <c r="G50" s="5">
+        <v>3432</v>
+      </c>
+      <c r="H50" s="5">
+        <v>3680</v>
+      </c>
+      <c r="I50" s="5">
+        <v>3760</v>
+      </c>
+      <c r="J50" s="5">
+        <v>3159</v>
+      </c>
+      <c r="K50" s="5">
+        <v>3177</v>
+      </c>
+      <c r="L50" s="5">
+        <v>3185</v>
+      </c>
+      <c r="M50" s="5">
+        <v>3206</v>
+      </c>
+      <c r="N50" s="5">
+        <v>3348</v>
+      </c>
+      <c r="O50" s="5">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="5">
+        <v>7065</v>
+      </c>
+      <c r="F51" s="5">
+        <v>7139</v>
+      </c>
+      <c r="G51" s="5">
+        <v>7126</v>
+      </c>
+      <c r="H51" s="5">
+        <v>7191</v>
+      </c>
+      <c r="I51" s="5">
+        <v>7229</v>
+      </c>
+      <c r="J51" s="5">
+        <v>7118</v>
+      </c>
+      <c r="K51" s="5">
+        <v>7102</v>
+      </c>
+      <c r="L51" s="5">
+        <v>7150</v>
+      </c>
+      <c r="M51" s="5">
+        <v>7361</v>
+      </c>
+      <c r="N51" s="5">
+        <v>7343</v>
+      </c>
+      <c r="O51" s="5">
+        <v>7359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="5">
+        <v>4374</v>
+      </c>
+      <c r="F52" s="5">
+        <v>4352</v>
+      </c>
+      <c r="G52" s="5">
+        <v>4399</v>
+      </c>
+      <c r="H52" s="5">
+        <v>4464</v>
+      </c>
+      <c r="I52" s="5">
+        <v>4487</v>
+      </c>
+      <c r="J52" s="5">
+        <v>5292</v>
+      </c>
+      <c r="K52" s="5">
+        <v>5351</v>
+      </c>
+      <c r="L52" s="5">
+        <v>5377</v>
+      </c>
+      <c r="M52" s="5">
+        <v>5400</v>
+      </c>
+      <c r="N52" s="5">
+        <v>5430</v>
+      </c>
+      <c r="O52" s="5">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="5">
+        <v>7419</v>
+      </c>
+      <c r="F53" s="5">
+        <v>7374</v>
+      </c>
+      <c r="G53" s="5">
+        <v>7371</v>
+      </c>
+      <c r="H53" s="5">
+        <v>7346</v>
+      </c>
+      <c r="I53" s="5">
+        <v>7321</v>
+      </c>
+      <c r="J53" s="5">
+        <v>7280</v>
+      </c>
+      <c r="K53" s="5">
+        <v>7220</v>
+      </c>
+      <c r="L53" s="5">
+        <v>7286</v>
+      </c>
+      <c r="M53" s="5">
+        <v>7308</v>
+      </c>
+      <c r="N53" s="5">
+        <v>7066</v>
+      </c>
+      <c r="O53" s="5">
+        <v>7079</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="5">
+        <v>4466</v>
+      </c>
+      <c r="F54" s="5">
+        <v>4481</v>
+      </c>
+      <c r="G54" s="5">
+        <v>4472</v>
+      </c>
+      <c r="H54" s="5">
+        <v>4440</v>
+      </c>
+      <c r="I54" s="5">
+        <v>4448</v>
+      </c>
+      <c r="J54" s="5">
+        <v>4451</v>
+      </c>
+      <c r="K54" s="5">
+        <v>4527</v>
+      </c>
+      <c r="L54" s="5">
+        <v>4547</v>
+      </c>
+      <c r="M54" s="5">
+        <v>3742</v>
+      </c>
+      <c r="N54" s="5">
+        <v>3648</v>
+      </c>
+      <c r="O54" s="5">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="5">
+        <v>7419</v>
+      </c>
+      <c r="F55" s="5">
+        <v>7374</v>
+      </c>
+      <c r="G55" s="5">
+        <v>7371</v>
+      </c>
+      <c r="H55" s="5">
+        <v>7346</v>
+      </c>
+      <c r="I55" s="5">
+        <v>7321</v>
+      </c>
+      <c r="J55" s="5">
+        <v>7280</v>
+      </c>
+      <c r="K55" s="5">
+        <v>7220</v>
+      </c>
+      <c r="L55" s="5">
+        <v>7286</v>
+      </c>
+      <c r="M55" s="5">
+        <v>7505</v>
+      </c>
+      <c r="N55" s="5">
+        <v>7531</v>
+      </c>
+      <c r="O55" s="5">
+        <v>7568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56">
+        <v>59</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>69</v>
+      </c>
+      <c r="I56">
+        <v>81</v>
+      </c>
+      <c r="J56">
+        <v>83</v>
+      </c>
+      <c r="K56">
+        <v>82</v>
+      </c>
+      <c r="L56">
+        <v>75</v>
+      </c>
+      <c r="M56">
+        <v>65</v>
+      </c>
+      <c r="N56">
+        <v>63</v>
+      </c>
+      <c r="O56">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="I57">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="M57">
+        <v>10</v>
+      </c>
+      <c r="N57">
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3462</v>
+      </c>
+      <c r="F58" s="5">
+        <v>3436</v>
+      </c>
+      <c r="G58" s="5">
+        <v>3410</v>
+      </c>
+      <c r="H58" s="5">
+        <v>3427</v>
+      </c>
+      <c r="I58" s="5">
+        <v>3403</v>
+      </c>
+      <c r="J58" s="5">
+        <v>3386</v>
+      </c>
+      <c r="K58" s="5">
+        <v>3375</v>
+      </c>
+      <c r="L58" s="5">
+        <v>3368</v>
+      </c>
+      <c r="M58" s="5">
+        <v>3356</v>
+      </c>
+      <c r="N58" s="5">
+        <v>3298</v>
+      </c>
+      <c r="O58" s="5">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2119</v>
+      </c>
+      <c r="G59" s="5">
+        <v>2196</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2311</v>
+      </c>
+      <c r="I59" s="5">
+        <v>2339</v>
+      </c>
+      <c r="J59" s="5">
+        <v>2686</v>
+      </c>
+      <c r="K59" s="5">
+        <v>3181</v>
+      </c>
+      <c r="L59" s="5">
+        <v>3259</v>
+      </c>
+      <c r="M59" s="5">
+        <v>3317</v>
+      </c>
+      <c r="N59" s="5">
+        <v>3356</v>
+      </c>
+      <c r="O59" s="5">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="5">
+        <v>6113</v>
+      </c>
+      <c r="F60" s="5">
+        <v>6164</v>
+      </c>
+      <c r="G60" s="5">
+        <v>6303</v>
+      </c>
+      <c r="H60" s="5">
+        <v>6341</v>
+      </c>
+      <c r="I60" s="5">
+        <v>6372</v>
+      </c>
+      <c r="J60" s="5">
+        <v>6395</v>
+      </c>
+      <c r="K60" s="5">
+        <v>6436</v>
+      </c>
+      <c r="L60" s="5">
+        <v>6570</v>
+      </c>
+      <c r="M60" s="5">
+        <v>5523</v>
+      </c>
+      <c r="N60" s="5">
+        <v>5458</v>
+      </c>
+      <c r="O60" s="5">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="5">
+        <v>3462</v>
+      </c>
+      <c r="F61" s="5">
+        <v>3436</v>
+      </c>
+      <c r="G61" s="5">
+        <v>3410</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3427</v>
+      </c>
+      <c r="I61" s="5">
+        <v>3403</v>
+      </c>
+      <c r="J61" s="5">
+        <v>3386</v>
+      </c>
+      <c r="K61" s="5">
+        <v>3375</v>
+      </c>
+      <c r="L61" s="5">
+        <v>3368</v>
+      </c>
+      <c r="M61" s="5">
+        <v>6750</v>
+      </c>
+      <c r="N61" s="5">
+        <v>6544</v>
+      </c>
+      <c r="O61" s="5">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62">
+        <v>73</v>
+      </c>
+      <c r="F62">
+        <v>46</v>
+      </c>
+      <c r="G62">
+        <v>41</v>
+      </c>
+      <c r="H62">
+        <v>35</v>
+      </c>
+      <c r="I62">
+        <v>40</v>
+      </c>
+      <c r="J62">
+        <v>37</v>
+      </c>
+      <c r="K62">
+        <v>46</v>
+      </c>
+      <c r="L62">
+        <v>46</v>
+      </c>
+      <c r="M62">
+        <v>40</v>
+      </c>
+      <c r="N62">
+        <v>46</v>
+      </c>
+      <c r="O62">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="5">
+        <v>7419</v>
+      </c>
+      <c r="F63" s="5">
+        <v>7374</v>
+      </c>
+      <c r="G63" s="5">
+        <v>7371</v>
+      </c>
+      <c r="H63" s="5">
+        <v>7346</v>
+      </c>
+      <c r="I63" s="5">
+        <v>7321</v>
+      </c>
+      <c r="J63" s="5">
+        <v>7280</v>
+      </c>
+      <c r="K63" s="5">
+        <v>7220</v>
+      </c>
+      <c r="L63" s="5">
+        <v>7286</v>
+      </c>
+      <c r="M63" s="5">
+        <v>7248</v>
+      </c>
+      <c r="N63" s="5">
+        <v>7239</v>
+      </c>
+      <c r="O63" s="5">
+        <v>7240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/data/allecijfers/overzicht-nieuwegein.xlsx
+++ b/src/main/resources/data/allecijfers/overzicht-nieuwegein.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\IdeaProjects\LearnDiTwins\src\main\resources\data\allecijfers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CB8C2D-E530-4ADE-A71C-F945EFBB57B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A57D26-B9A8-4E4D-9C34-938D7FDBA1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="0" windowWidth="23835" windowHeight="21000" activeTab="4" xr2:uid="{50057F15-3147-432A-8EDA-956F5D835F7B}"/>
+    <workbookView xWindow="1320" yWindow="1140" windowWidth="21840" windowHeight="18495" activeTab="5" xr2:uid="{50057F15-3147-432A-8EDA-956F5D835F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="inwoneraantal" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Ouder dan 65" sheetId="2" r:id="rId3"/>
     <sheet name="huishouden" sheetId="3" r:id="rId4"/>
     <sheet name="bevolkinsdichtheid" sheetId="5" r:id="rId5"/>
+    <sheet name="bijstand" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="126">
   <si>
     <t>Leeftijd jonger dan 15 % Nieuwegein</t>
   </si>
@@ -415,6 +416,9 @@
   </si>
   <si>
     <t>Gemiddelde bevolkingsdichtheid Nieuwegein</t>
+  </si>
+  <si>
+    <t>Personen met bijstand % Nieuwegein</t>
   </si>
 </sst>
 </file>
@@ -10983,7 +10987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9B471-9358-4BBF-8A5A-B2245D2AC499}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -13870,4 +13874,2733 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B576A26-99B8-42FE-9F67-00BBBBD30C90}">
+  <dimension ref="A1:N63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3.9735099337748353E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2.181818181818182E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8.4388185654008432E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6.993006993006993E-3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5.8823529411764714E-3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5.7471264367816091E-3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5.6980056980056983E-3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5.6338028169014088E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.1764705882352939E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.4534883720930231E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.4492753623188409E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.4450867052023119E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.4409221902017291E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.4598540145985399E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.461988304093568E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.167883211678832E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.2684989429175481E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.6129032258064519E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.810865191146881E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.014098690835851E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.9627085377821391E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.186878727634195E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.780415430267062E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.7612524461839529E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.7578125E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.9398642095053351E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.9047619047619049E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.510989010989011E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.5099519560741251E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.7918676774638181E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.0562028786840301E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.913875598086125E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.9230769230769228E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.7711171662125338E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.9060585432266849E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3.6832412523020259E-3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3.7383177570093459E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.974183750949127E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.9908116385911181E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.152190622598002E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.1472392638036811E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.1571648690292759E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.9923371647509579E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.9953952417498078E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.984732824427481E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2.010827532869296E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2.0030816640986129E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.1746031746031737E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.669724770642202E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.9069767441860461E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.3519553072625698E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3.39943342776204E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.7940379403794043E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3.3519553072625698E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3.825136612021858E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2.6595744680851061E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.6129032258064509E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.810865191146881E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.014098690835851E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.9627085377821391E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.186878727634195E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.780415430267062E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.7612524461839529E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.7578125E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.410934744268078E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.7391304347826091E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.2536679841293681E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.8915956400590069E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.9280506692521751E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.3721187149877788E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.7391304347826091E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.7492711370262391E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.318840579710145E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2.318840579710145E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2.312138728323699E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2.3952095808383232E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.510989010989011E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.5099519560741251E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.7918676774638181E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.0562028786840301E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.913875598086124E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1.9230769230769228E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.7711171662125338E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.9060585432266849E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.778385772913817E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.9257221458046769E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0771992818671449E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.083032490974729E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.0714285714285709E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.058201058201058E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.0526315789473681E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.029159519725557E-2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.018675721561969E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.0118043844856661E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.515151515151515E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.503759398496241E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.6849199663016009E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.6792611251049541E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2.033898305084746E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.8612521150592219E-2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.8596787827557061E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.828761429758936E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.821192052980132E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.839464882943144E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.658374792703151E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.14736842105263159</v>
+      </c>
+      <c r="N14" s="3">
+        <v>9.6153846153846159E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.5384615384615391E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.526717557251908E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.526717557251908E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.5748031496062988E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.5748031496062988E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.550387596899225E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.5873015873015869E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.550387596899225E-2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.5384615384615391E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.5748031496062988E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.6129032258064519E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.810865191146881E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.014098690835851E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.9627085377821391E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2.186878727634195E-2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.780415430267062E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.7612524461839529E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.7578125E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2.159827213822894E-2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2.100840336134454E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.6849199663016009E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.6792611251049541E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2.033898305084746E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.8612521150592219E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.8596787827557061E-2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.828761429758936E-2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.821192052980132E-2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.7582417582417579E-2</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.7467248908296939E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3.8623005877413942E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.3297252289758538E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.5639771801141003E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4.5344129554655867E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4.5124899274778398E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4.1500399042298478E-2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3.6021926389976512E-2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3.7765538945712038E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.1764705882352939E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.4534883720930231E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.4492753623188409E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.4450867052023119E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.4409221902017291E-2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1.4598540145985399E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.461988304093567E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1.167883211678832E-2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>9.433962264150943E-3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>9.3896713615023476E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.974183750949127E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.9908116385911181E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2.152190622598002E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2.1472392638036811E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2.1571648690292759E-2</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1.9923371647509579E-2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.9953952417498078E-2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.984732824427481E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3.1847133757961783E-2</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3.215434083601286E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.14736842105263159</v>
+      </c>
+      <c r="N23" s="3">
+        <v>9.6153846153846159E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.974183750949127E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.9908116385911181E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.1521906225980009E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2.1472392638036811E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.1571648690292759E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1.9923371647509579E-2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.9953952417498078E-2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.984732824427481E-2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3.642987249544627E-3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3.610108303249098E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.510989010989011E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.5099519560741251E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.7918676774638181E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.0562028786840301E-2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.913875598086124E-2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1.9230769230769228E-2</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1.7711171662125338E-2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1.9060585432266849E-2</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3.6231884057971023E-2</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3.9855072463768113E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.2883295194508008E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2.2624434389140271E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2.7210884353741499E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2.6966292134831461E-2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2.684563758389262E-2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2.2573363431151239E-2</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2.714932126696833E-2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2.6966292134831461E-2</v>
+      </c>
+      <c r="M29" s="3">
+        <v>2.6258205689277898E-2</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2.6258205689277898E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3">
+        <v>1.8228097544954431E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.966085033177685E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2.1219639592582919E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2.2672431942217689E-2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2.3113725997284541E-2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2.1785794380546571E-2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>2.094041500095184E-2</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2.0642274116794299E-2</v>
+      </c>
+      <c r="M30" s="3">
+        <v>2.160774120815457E-2</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2.0602906094122748E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.974183750949127E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.9908116385911181E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2.152190622598002E-2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2.1472392638036811E-2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2.1571648690292759E-2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1.9923371647509579E-2</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1.9953952417498078E-2</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1.984732824427481E-2</v>
+      </c>
+      <c r="M31" s="3">
+        <v>3.2634032634032632E-2</v>
+      </c>
+      <c r="N31" s="3">
+        <v>3.2332563510392612E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3.1746031746031737E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.669724770642202E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2.9069767441860461E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3.3519553072625698E-2</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3.39943342776204E-2</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3.8043478260869568E-2</v>
+      </c>
+      <c r="K33" s="3">
+        <v>3.3613445378151259E-2</v>
+      </c>
+      <c r="L33" s="3">
+        <v>4.507042253521127E-2</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3.8147138964577658E-2</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2.6595744680851061E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2.1739130434782612E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.510989010989011E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.5099519560741251E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.7918676774638181E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2.0562028786840301E-2</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.913875598086125E-2</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1.9230769230769228E-2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1.7711171662125338E-2</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1.9060585432266849E-2</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1.6348773841961851E-2</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1.08991825613079E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8.6538461538461536E-2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="I36" s="3">
+        <v>9.5617529880478086E-2</v>
+      </c>
+      <c r="J36" s="3">
+        <v>7.6124567474048443E-2</v>
+      </c>
+      <c r="K36" s="3">
+        <v>6.8322981366459631E-2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>6.7901234567901231E-2</v>
+      </c>
+      <c r="M36" s="3">
+        <v>6.2893081761006289E-2</v>
+      </c>
+      <c r="N36" s="3">
+        <v>6.1349693251533742E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.0771992818671449E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.083032490974729E-2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.0714285714285709E-2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1.058201058201058E-2</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1.0526315789473681E-2</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1.0291595197255581E-2</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1.018675721561969E-2</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1.0118043844856661E-2</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1.2121212121212119E-2</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1.201201201201201E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.1764705882352939E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.4534883720930231E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.4492753623188409E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1.4450867052023119E-2</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.4409221902017291E-2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1.4598540145985399E-2</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1.461988304093568E-2</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1.167883211678832E-2</v>
+      </c>
+      <c r="M39" s="3">
+        <v>8.836524300441826E-3</v>
+      </c>
+      <c r="N39" s="3">
+        <v>8.7336244541484712E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.5384615384615391E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.526717557251908E-2</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.526717557251908E-2</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1.5748031496062988E-2</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.5748031496062988E-2</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1.550387596899225E-2</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1.5873015873015869E-2</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1.550387596899225E-2</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1.5384615384615391E-2</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.5748031496062988E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8.6538461538461536E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="I42" s="3">
+        <v>9.5617529880478086E-2</v>
+      </c>
+      <c r="J42" s="3">
+        <v>7.586206896551724E-2</v>
+      </c>
+      <c r="K42" s="3">
+        <v>6.8111455108359129E-2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>6.7901234567901231E-2</v>
+      </c>
+      <c r="M42" s="3">
+        <v>6.2695924764890276E-2</v>
+      </c>
+      <c r="N42" s="3">
+        <v>6.1349693251533742E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6.9204152249134942E-3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6.9767441860465124E-3</v>
+      </c>
+      <c r="G43" s="3">
+        <v>7.0298769771529003E-3</v>
+      </c>
+      <c r="H43" s="3">
+        <v>9.3676814988290415E-3</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1.0613207547169811E-2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.070791195716835E-2</v>
+      </c>
+      <c r="K43" s="3">
+        <v>9.5522388059701493E-3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>9.5693779904306216E-3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1.3179571663920919E-2</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1.3311148086522459E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1.6849199663016009E-2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.6792611251049541E-2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2.033898305084746E-2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1.8612521150592219E-2</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1.8596787827557061E-2</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1.828761429758936E-2</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1.821192052980132E-2</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1.7505470459518599E-2</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1.284796573875803E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.951951951951952E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.963746223564955E-2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2.1148036253776429E-2</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2.4260803639120549E-2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2.5855513307984791E-2</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2.7522935779816519E-2</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2.4672320740169621E-2</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2.2935779816513759E-2</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1.7699115044247791E-2</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1.754385964912281E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3.8623005877413942E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4.3297252289758531E-2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4.5639771801141003E-2</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4.5344129554655867E-2</v>
+      </c>
+      <c r="I46" s="3">
+        <v>4.5124899274778398E-2</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4.4943820224719107E-2</v>
+      </c>
+      <c r="K46" s="3">
+        <v>4.1500399042298478E-2</v>
+      </c>
+      <c r="L46" s="3">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="M46" s="3">
+        <v>2.551020408163265E-2</v>
+      </c>
+      <c r="N46" s="3">
+        <v>2.538071065989848E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6.920415224913495E-3</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6.9767441860465124E-3</v>
+      </c>
+      <c r="G47" s="3">
+        <v>7.0298769771528994E-3</v>
+      </c>
+      <c r="H47" s="3">
+        <v>9.3676814988290415E-3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1.0613207547169811E-2</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1.070791195716835E-2</v>
+      </c>
+      <c r="K47" s="3">
+        <v>9.5522388059701493E-3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>9.5693779904306234E-3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>7.0671378091872791E-3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>7.2072072072072073E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3.8623005877413942E-2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4.3297252289758531E-2</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4.5639771801141003E-2</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4.5344129554655867E-2</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4.5124899274778398E-2</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4.4943820224719107E-2</v>
+      </c>
+      <c r="K48" s="3">
+        <v>4.1500399042298478E-2</v>
+      </c>
+      <c r="L48" s="3">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="M48" s="3">
+        <v>5.7761732851985562E-2</v>
+      </c>
+      <c r="N48" s="3">
+        <v>6.1705989110707807E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6.920415224913495E-3</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6.9767441860465124E-3</v>
+      </c>
+      <c r="G49" s="3">
+        <v>7.0298769771529003E-3</v>
+      </c>
+      <c r="H49" s="3">
+        <v>9.3676814988290398E-3</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1.0613207547169811E-2</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1.070791195716835E-2</v>
+      </c>
+      <c r="K49" s="3">
+        <v>9.5522388059701476E-3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>9.5693779904306216E-3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1.2536679841293681E-2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.8915956400590069E-2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1.9280506692521751E-2</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2.3721187149877788E-2</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1.7391304347826091E-2</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1.7492711370262391E-2</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2.3255813953488368E-2</v>
+      </c>
+      <c r="L50" s="3">
+        <v>2.312138728323699E-2</v>
+      </c>
+      <c r="M50" s="3">
+        <v>2.3054755043227661E-2</v>
+      </c>
+      <c r="N50" s="3">
+        <v>2.3952095808383232E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2.2883295194508008E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2.2624434389140271E-2</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2.7210884353741499E-2</v>
+      </c>
+      <c r="H51" s="3">
+        <v>2.6966292134831461E-2</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2.684563758389262E-2</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2.2573363431151239E-2</v>
+      </c>
+      <c r="K51" s="3">
+        <v>2.714932126696833E-2</v>
+      </c>
+      <c r="L51" s="3">
+        <v>2.6966292134831461E-2</v>
+      </c>
+      <c r="M51" s="3">
+        <v>2.6258205689277898E-2</v>
+      </c>
+      <c r="N51" s="3">
+        <v>2.6258205689277898E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1.0771992818671449E-2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1.083032490974729E-2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1.0714285714285709E-2</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1.058201058201058E-2</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1.0526315789473681E-2</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1.0291595197255581E-2</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1.01867572156197E-2</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1.0118043844856661E-2</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1.3468013468013469E-2</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1.003344481605351E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1.951951951951952E-2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1.963746223564955E-2</v>
+      </c>
+      <c r="G53" s="3">
+        <v>2.1148036253776439E-2</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2.4260803639120549E-2</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2.5855513307984791E-2</v>
+      </c>
+      <c r="J53" s="3">
+        <v>2.7522935779816508E-2</v>
+      </c>
+      <c r="K53" s="3">
+        <v>2.4672320740169621E-2</v>
+      </c>
+      <c r="L53" s="3">
+        <v>2.2935779816513759E-2</v>
+      </c>
+      <c r="M53" s="3">
+        <v>2.279202279202279E-2</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1.734104046242774E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1.6849199663016009E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1.6792611251049541E-2</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2.033898305084746E-2</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1.8612521150592219E-2</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1.8596787827557061E-2</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1.828761429758936E-2</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1.821192052980132E-2</v>
+      </c>
+      <c r="M54" s="3">
+        <v>2.1126760563380281E-2</v>
+      </c>
+      <c r="N54" s="3">
+        <v>2.1352313167259791E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1.951951951951952E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1.9637462235649539E-2</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2.1148036253776429E-2</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2.4260803639120539E-2</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2.5855513307984791E-2</v>
+      </c>
+      <c r="J55" s="3">
+        <v>2.7522935779816508E-2</v>
+      </c>
+      <c r="K55" s="3">
+        <v>2.4672320740169621E-2</v>
+      </c>
+      <c r="L55" s="3">
+        <v>2.2935779816513759E-2</v>
+      </c>
+      <c r="M55" s="3">
+        <v>2.922077922077922E-2</v>
+      </c>
+      <c r="N55" s="3">
+        <v>2.61437908496732E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6.9204152249134959E-3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6.9767441860465124E-3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7.0298769771528994E-3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>9.3676814988290415E-3</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1.0613207547169811E-2</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1.070791195716835E-2</v>
+      </c>
+      <c r="K58" s="3">
+        <v>9.5522388059701493E-3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>9.5693779904306234E-3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>8.4084084084084087E-3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>9.7739767868051317E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8.4388185654008432E-3</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6.9686411149825784E-3</v>
+      </c>
+      <c r="K59" s="3">
+        <v>5.8997050147492616E-3</v>
+      </c>
+      <c r="L59" s="3">
+        <v>5.7471264367816091E-3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="N59" s="3">
+        <v>5.6338028169014088E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3.8623005877413942E-2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4.3297252289758531E-2</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4.5639771801141003E-2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4.5344129554655867E-2</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4.5124899274778411E-2</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4.1500399042298478E-2</v>
+      </c>
+      <c r="L60" s="3">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1.204819277108434E-2</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1.226993865030675E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6.920415224913495E-3</v>
+      </c>
+      <c r="F61" s="3">
+        <v>6.9767441860465124E-3</v>
+      </c>
+      <c r="G61" s="3">
+        <v>7.0298769771529003E-3</v>
+      </c>
+      <c r="H61" s="3">
+        <v>9.3676814988290398E-3</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1.0613207547169811E-2</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1.070791195716835E-2</v>
+      </c>
+      <c r="K61" s="3">
+        <v>9.5522388059701493E-3</v>
+      </c>
+      <c r="L61" s="3">
+        <v>9.5693779904306234E-3</v>
+      </c>
+      <c r="M61" s="3">
+        <v>8.23045267489712E-3</v>
+      </c>
+      <c r="N61" s="3">
+        <v>8.4210526315789472E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1.951951951951952E-2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1.963746223564955E-2</v>
+      </c>
+      <c r="G63" s="3">
+        <v>2.1148036253776439E-2</v>
+      </c>
+      <c r="H63" s="3">
+        <v>2.4260803639120549E-2</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2.5855513307984791E-2</v>
+      </c>
+      <c r="J63" s="3">
+        <v>2.7522935779816519E-2</v>
+      </c>
+      <c r="K63" s="3">
+        <v>2.4672320740169621E-2</v>
+      </c>
+      <c r="L63" s="3">
+        <v>2.2935779816513759E-2</v>
+      </c>
+      <c r="M63" s="3">
+        <v>2.298850574712644E-2</v>
+      </c>
+      <c r="N63" s="3">
+        <v>2.152190622598002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/data/allecijfers/overzicht-nieuwegein.xlsx
+++ b/src/main/resources/data/allecijfers/overzicht-nieuwegein.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\IdeaProjects\LearnDiTwins\src\main\resources\data\allecijfers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Documents\LearnDiTwins\src\main\resources\data\allecijfers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A57D26-B9A8-4E4D-9C34-938D7FDBA1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D064B81B-3CD3-4FD5-95E3-E2E4787228CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1140" windowWidth="21840" windowHeight="18495" activeTab="5" xr2:uid="{50057F15-3147-432A-8EDA-956F5D835F7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{50057F15-3147-432A-8EDA-956F5D835F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="inwoneraantal" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="huishouden" sheetId="3" r:id="rId4"/>
     <sheet name="bevolkinsdichtheid" sheetId="5" r:id="rId5"/>
     <sheet name="bijstand" sheetId="6" r:id="rId6"/>
+    <sheet name="gemiddelde woning waarde" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="127">
   <si>
     <t>Leeftijd jonger dan 15 % Nieuwegein</t>
   </si>
@@ -420,11 +421,17 @@
   <si>
     <t>Personen met bijstand % Nieuwegein</t>
   </si>
+  <si>
+    <t>Gemiddelde woningwaarde Nieuwegein</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\€\ #,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -503,6 +510,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -823,9 +833,9 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -872,7 +882,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,7 +919,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -956,7 +966,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1060,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1107,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1144,7 +1154,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1332,7 +1342,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1463,7 +1473,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1510,7 +1520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1557,7 +1567,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1651,7 +1661,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1698,7 +1708,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1745,7 +1755,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1792,7 +1802,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1839,7 +1849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,7 +1886,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1954,7 +1964,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2001,7 +2011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2142,7 +2152,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -2187,7 +2197,7 @@
         <v>65426</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2234,7 +2244,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -2281,7 +2291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -2328,7 +2338,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2375,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -2459,7 +2469,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -2506,7 +2516,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -2553,7 +2563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -2600,7 +2610,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -2647,7 +2657,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -2694,7 +2704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -2741,7 +2751,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -2788,7 +2798,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -2835,7 +2845,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -2882,7 +2892,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2929,7 +2939,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -2976,7 +2986,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -3023,7 +3033,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -3070,7 +3080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -3117,7 +3127,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -3164,7 +3174,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -3211,7 +3221,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -3258,7 +3268,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3305,7 +3315,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -3352,7 +3362,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3399,7 +3409,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -3446,7 +3456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -3493,7 +3503,7 @@
         <v>8205</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -3540,7 +3550,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -3587,7 +3597,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -3634,7 +3644,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -3681,7 +3691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -3741,9 +3751,9 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3790,7 +3800,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3827,7 +3837,7 @@
         <v>6.2146892655367228E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3874,7 +3884,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3921,7 +3931,7 @@
         <v>0.12684989429175481</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3968,7 +3978,7 @@
         <v>0.1825922421948912</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4015,7 +4025,7 @@
         <v>0.15543071161048691</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4062,7 +4072,7 @@
         <v>0.18362662586074979</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -4109,7 +4119,7 @@
         <v>0.1064935064935065</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -4156,7 +4166,7 @@
         <v>0.18388791593695269</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -4203,7 +4213,7 @@
         <v>9.4955489614243327E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -4250,7 +4260,7 @@
         <v>0.15456989247311831</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -4297,7 +4307,7 @@
         <v>0.18656716417910449</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -4344,7 +4354,7 @@
         <v>0.14867109634551501</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -4381,7 +4391,7 @@
         <v>9.9009900990099015E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -4428,7 +4438,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4475,7 +4485,7 @@
         <v>0.15267175572519079</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -4522,7 +4532,7 @@
         <v>0.1831275720164609</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -4569,7 +4579,7 @@
         <v>0.145021645021645</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -4616,7 +4626,7 @@
         <v>0.1560826319816373</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -4663,7 +4673,7 @@
         <v>0.18867924528301891</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4710,7 +4720,7 @@
         <v>0.2024922118380062</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -4753,7 +4763,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>9.9009900990099015E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -4837,7 +4847,7 @@
         <v>0.17064220183486239</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -4868,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4915,7 +4925,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>0.14700854700854701</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -5052,7 +5062,7 @@
         <v>0.18995633187772931</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -5097,7 +5107,7 @@
         <v>0.15365451043927489</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -5144,7 +5154,7 @@
         <v>0.18535469107551489</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -5187,7 +5197,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -5234,7 +5244,7 @@
         <v>0.1064935064935065</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -5271,7 +5281,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -5318,7 +5328,7 @@
         <v>0.16621253405994549</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -5365,7 +5375,7 @@
         <v>0.12654320987654319</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -5412,7 +5422,7 @@
         <v>0.21084337349397589</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -5459,7 +5469,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -5506,7 +5516,7 @@
         <v>0.1476608187134503</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -5553,7 +5563,7 @@
         <v>0.15789473684210531</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -5596,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -5643,7 +5653,7 @@
         <v>0.12654320987654319</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -5690,7 +5700,7 @@
         <v>0.1387959866220736</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -5737,7 +5747,7 @@
         <v>0.1447084233261339</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -5784,7 +5794,7 @@
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -5831,7 +5841,7 @@
         <v>0.16431924882629109</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -5878,7 +5888,7 @@
         <v>0.1192170818505338</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -5925,7 +5935,7 @@
         <v>0.15970961887477311</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -5972,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -6019,7 +6029,7 @@
         <v>9.4955489614243327E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -6066,7 +6076,7 @@
         <v>0.18995633187772931</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -6113,7 +6123,7 @@
         <v>0.20033388981636061</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -6160,7 +6170,7 @@
         <v>0.1705202312138728</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>0.16370106761565839</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -6254,7 +6264,7 @@
         <v>0.16260162601626019</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -6301,7 +6311,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -6344,7 +6354,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -6391,7 +6401,7 @@
         <v>0.12606577344701581</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -6438,7 +6448,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -6485,7 +6495,7 @@
         <v>0.141566265060241</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -6532,7 +6542,7 @@
         <v>0.1197478991596639</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -6575,7 +6585,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -6635,9 +6645,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -6684,7 +6694,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -6721,7 +6731,7 @@
         <v>6.7796610169491525E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -6768,7 +6778,7 @@
         <v>0.1051136363636364</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6815,7 +6825,7 @@
         <v>0.27484143763213531</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -6862,7 +6872,7 @@
         <v>0.21759697256386001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6909,7 +6919,7 @@
         <v>0.24531835205992511</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6956,7 +6966,7 @@
         <v>0.18056618209640399</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -7003,7 +7013,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -7050,7 +7060,7 @@
         <v>0.2136602451838879</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -7097,7 +7107,7 @@
         <v>0.40059347181008897</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -7144,7 +7154,7 @@
         <v>0.22110215053763441</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -7191,7 +7201,7 @@
         <v>0.23507462686567171</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -7238,7 +7248,7 @@
         <v>0.25249169435215951</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -7275,7 +7285,7 @@
         <v>8.9108910891089105E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -7322,7 +7332,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -7369,7 +7379,7 @@
         <v>0.23664122137404581</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -7416,7 +7426,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -7463,7 +7473,7 @@
         <v>0.22727272727272729</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -7510,7 +7520,7 @@
         <v>0.21040550879877579</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -7557,7 +7567,7 @@
         <v>0.18867924528301891</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -7604,7 +7614,7 @@
         <v>0.1246105919003115</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -7647,7 +7657,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -7684,7 +7694,7 @@
         <v>8.9108910891089105E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -7731,7 +7741,7 @@
         <v>0.2293577981651376</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -7762,7 +7772,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -7809,7 +7819,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -7856,7 +7866,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -7899,7 +7909,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -7946,7 +7956,7 @@
         <v>0.16593886462882099</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -7991,7 +8001,7 @@
         <v>0.21338611561153059</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -8038,7 +8048,7 @@
         <v>0.16475972540045769</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -8081,7 +8091,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -8128,7 +8138,7 @@
         <v>0.19740259740259741</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -8165,7 +8175,7 @@
         <v>6.5714285714285711E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -8212,7 +8222,7 @@
         <v>0.19618528610354219</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -8259,7 +8269,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -8306,7 +8316,7 @@
         <v>0.2289156626506024</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -8353,7 +8363,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -8400,7 +8410,7 @@
         <v>0.24853801169590639</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -8447,7 +8457,7 @@
         <v>0.24060150375939851</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -8490,7 +8500,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -8537,7 +8547,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -8584,7 +8594,7 @@
         <v>0.25585284280936449</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -8631,7 +8641,7 @@
         <v>0.27861771058315332</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -8678,7 +8688,7 @@
         <v>0.22189349112426041</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -8725,7 +8735,7 @@
         <v>0.20657276995305171</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -8772,7 +8782,7 @@
         <v>0.26512455516014227</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -8819,7 +8829,7 @@
         <v>0.18330308529945549</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -8866,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -8913,7 +8923,7 @@
         <v>0.40059347181008897</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -8960,7 +8970,7 @@
         <v>0.16593886462882099</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -9007,7 +9017,7 @@
         <v>0.23205342237061771</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -9054,7 +9064,7 @@
         <v>0.14739884393063579</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -9101,7 +9111,7 @@
         <v>0.25266903914590749</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -9148,7 +9158,7 @@
         <v>0.15609756097560981</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -9195,7 +9205,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -9238,7 +9248,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -9285,7 +9295,7 @@
         <v>0.27101096224116927</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -9332,7 +9342,7 @@
         <v>0.1051136363636364</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -9379,7 +9389,7 @@
         <v>0.25903614457831331</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -9426,7 +9436,7 @@
         <v>0.29831932773109238</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -9469,7 +9479,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -9529,9 +9539,9 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -9554,7 +9564,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -9575,7 +9585,7 @@
         <v>10018</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -9598,7 +9608,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
@@ -9621,7 +9631,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -9644,7 +9654,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -9667,7 +9677,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -9690,7 +9700,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -9713,7 +9723,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -9736,7 +9746,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -9759,7 +9769,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -9782,7 +9792,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -9805,7 +9815,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -9828,7 +9838,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -9851,7 +9861,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -9874,7 +9884,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -9897,7 +9907,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9920,7 +9930,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -9943,7 +9953,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -9966,7 +9976,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
@@ -9989,7 +9999,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
@@ -10012,7 +10022,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -10035,7 +10045,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -10058,7 +10068,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -10081,7 +10091,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -10104,7 +10114,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -10127,7 +10137,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
@@ -10150,7 +10160,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -10173,7 +10183,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -10196,7 +10206,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -10219,7 +10229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
@@ -10242,7 +10252,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -10265,7 +10275,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
@@ -10288,7 +10298,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -10311,7 +10321,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
@@ -10334,7 +10344,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -10357,7 +10367,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -10380,7 +10390,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -10403,7 +10413,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -10426,7 +10436,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -10449,7 +10459,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -10472,7 +10482,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -10495,7 +10505,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -10518,7 +10528,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -10541,7 +10551,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -10564,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -10587,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -10610,7 +10620,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -10633,7 +10643,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -10656,7 +10666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -10679,7 +10689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -10702,7 +10712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -10725,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>84</v>
       </c>
@@ -10748,7 +10758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -10771,7 +10781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
@@ -10794,7 +10804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -10817,7 +10827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
@@ -10840,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -10863,7 +10873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
@@ -10886,7 +10896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -10909,7 +10919,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
@@ -10932,7 +10942,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -10955,7 +10965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -10991,12 +11001,12 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -11043,7 +11053,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11075,7 +11085,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11122,7 +11132,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -11169,7 +11179,7 @@
         <v>4427</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -11216,7 +11226,7 @@
         <v>5929</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -11263,7 +11273,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -11310,7 +11320,7 @@
         <v>5178</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -11357,7 +11367,7 @@
         <v>6987</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -11404,7 +11414,7 @@
         <v>6753</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -11451,7 +11461,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -11498,7 +11508,7 @@
         <v>5563</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -11545,7 +11555,7 @@
         <v>5185</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -11592,7 +11602,7 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -11624,7 +11634,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -11671,7 +11681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -11718,7 +11728,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -11765,7 +11775,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -11812,7 +11822,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -11859,7 +11869,7 @@
         <v>6710</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -11906,7 +11916,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -11953,7 +11963,7 @@
         <v>9447</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -12000,7 +12010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -12032,7 +12042,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -12079,7 +12089,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -12102,7 +12112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -12149,7 +12159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -12196,7 +12206,7 @@
         <v>8287</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -12243,7 +12253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -12290,7 +12300,7 @@
         <v>7359</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -12334,7 +12344,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -12381,7 +12391,7 @@
         <v>8387</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -12428,7 +12438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -12475,7 +12485,7 @@
         <v>6987</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -12507,7 +12517,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -12554,7 +12564,7 @@
         <v>6458</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -12601,7 +12611,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -12648,7 +12658,7 @@
         <v>5661</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -12695,7 +12705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -12742,7 +12752,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -12789,7 +12799,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -12836,7 +12846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -12883,7 +12893,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -12930,7 +12940,7 @@
         <v>6906</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -12977,7 +12987,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -13024,7 +13034,7 @@
         <v>6860</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -13071,7 +13081,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -13118,7 +13128,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -13165,7 +13175,7 @@
         <v>9563</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -13212,7 +13222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -13259,7 +13269,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -13306,7 +13316,7 @@
         <v>7359</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -13353,7 +13363,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -13400,7 +13410,7 @@
         <v>7079</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -13447,7 +13457,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -13494,7 +13504,7 @@
         <v>7568</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -13541,7 +13551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -13588,7 +13598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -13635,7 +13645,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -13682,7 +13692,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -13729,7 +13739,7 @@
         <v>5531</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -13776,7 +13786,7 @@
         <v>6555</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -13823,7 +13833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -13880,13 +13890,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B576A26-99B8-42FE-9F67-00BBBBD30C90}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -13930,7 +13940,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -13964,7 +13974,7 @@
         <v>2.181818181818182E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -14008,7 +14018,7 @@
         <v>5.6338028169014088E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -14052,7 +14062,7 @@
         <v>1.2684989429175481E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -14096,7 +14106,7 @@
         <v>1.9047619047619049E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -14140,7 +14150,7 @@
         <v>3.7383177570093459E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -14184,7 +14194,7 @@
         <v>2.0030816640986129E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -14228,7 +14238,7 @@
         <v>2.6595744680851061E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -14272,7 +14282,7 @@
         <v>1.7391304347826091E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -14316,7 +14326,7 @@
         <v>2.3952095808383232E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -14360,7 +14370,7 @@
         <v>1.9257221458046769E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -14404,7 +14414,7 @@
         <v>1.503759398496241E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -14448,7 +14458,7 @@
         <v>1.658374792703151E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -14482,7 +14492,7 @@
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -14526,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -14570,7 +14580,7 @@
         <v>1.5748031496062988E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -14614,7 +14624,7 @@
         <v>2.100840336134454E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -14658,7 +14668,7 @@
         <v>1.7467248908296939E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -14702,7 +14712,7 @@
         <v>3.7765538945712038E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -14746,7 +14756,7 @@
         <v>9.3896713615023476E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -14790,7 +14800,7 @@
         <v>3.215434083601286E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -14834,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -14868,7 +14878,7 @@
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -14912,7 +14922,7 @@
         <v>3.610108303249098E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -14940,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -14984,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -15028,7 +15038,7 @@
         <v>3.9855072463768113E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -15072,7 +15082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -15116,7 +15126,7 @@
         <v>2.6258205689277898E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -15158,7 +15168,7 @@
         <v>2.0602906094122748E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -15202,7 +15212,7 @@
         <v>3.2332563510392612E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -15246,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -15290,7 +15300,7 @@
         <v>2.6595744680851061E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -15324,7 +15334,7 @@
         <v>2.1739130434782612E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -15368,7 +15378,7 @@
         <v>1.08991825613079E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -15412,7 +15422,7 @@
         <v>6.1349693251533742E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -15456,7 +15466,7 @@
         <v>1.201201201201201E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -15500,7 +15510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -15544,7 +15554,7 @@
         <v>8.7336244541484712E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -15588,7 +15598,7 @@
         <v>1.5748031496062988E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -15632,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -15676,7 +15686,7 @@
         <v>6.1349693251533742E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -15720,7 +15730,7 @@
         <v>1.3311148086522459E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -15764,7 +15774,7 @@
         <v>1.284796573875803E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -15808,7 +15818,7 @@
         <v>1.754385964912281E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -15852,7 +15862,7 @@
         <v>2.538071065989848E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -15896,7 +15906,7 @@
         <v>7.2072072072072073E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -15940,7 +15950,7 @@
         <v>6.1705989110707807E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -15984,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -16028,7 +16038,7 @@
         <v>2.3952095808383232E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -16072,7 +16082,7 @@
         <v>2.6258205689277898E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -16116,7 +16126,7 @@
         <v>1.003344481605351E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -16160,7 +16170,7 @@
         <v>1.734104046242774E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -16204,7 +16214,7 @@
         <v>2.1352313167259791E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -16248,7 +16258,7 @@
         <v>2.61437908496732E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -16292,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -16336,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -16380,7 +16390,7 @@
         <v>9.7739767868051317E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -16424,7 +16434,7 @@
         <v>5.6338028169014088E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -16468,7 +16478,7 @@
         <v>1.226993865030675E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -16512,7 +16522,7 @@
         <v>8.4210526315789472E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -16556,7 +16566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -16598,6 +16608,2523 @@
       </c>
       <c r="N63" s="3">
         <v>2.152190622598002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7CB7F2-ED9D-4602-BA7F-4B1D808F5B04}">
+  <dimension ref="A1:N63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6">
+        <v>163000</v>
+      </c>
+      <c r="K2" s="6">
+        <v>189000</v>
+      </c>
+      <c r="L2" s="6">
+        <v>189000</v>
+      </c>
+      <c r="M2" s="6">
+        <v>189000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>211000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>272000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>245000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>243000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>243000</v>
+      </c>
+      <c r="I3" s="6">
+        <v>257000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>248000</v>
+      </c>
+      <c r="K3" s="6">
+        <v>281000</v>
+      </c>
+      <c r="L3" s="6">
+        <v>308000</v>
+      </c>
+      <c r="M3" s="6">
+        <v>341000</v>
+      </c>
+      <c r="N3" s="6">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>241000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>222000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>214000</v>
+      </c>
+      <c r="H4" s="6">
+        <v>216000</v>
+      </c>
+      <c r="I4" s="6">
+        <v>220000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>236000</v>
+      </c>
+      <c r="K4" s="6">
+        <v>252000</v>
+      </c>
+      <c r="L4" s="6">
+        <v>269000</v>
+      </c>
+      <c r="M4" s="6">
+        <v>269000</v>
+      </c>
+      <c r="N4" s="6">
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6">
+        <v>210000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>197000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>187000</v>
+      </c>
+      <c r="H5" s="6">
+        <v>190000</v>
+      </c>
+      <c r="I5" s="6">
+        <v>199000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>211000</v>
+      </c>
+      <c r="K5" s="6">
+        <v>232000</v>
+      </c>
+      <c r="L5" s="6">
+        <v>248000</v>
+      </c>
+      <c r="M5" s="6">
+        <v>265000</v>
+      </c>
+      <c r="N5" s="6">
+        <v>287000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6">
+        <v>218000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>203000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>196000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="6">
+        <v>202000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>217000</v>
+      </c>
+      <c r="K6" s="6">
+        <v>236000</v>
+      </c>
+      <c r="L6" s="6">
+        <v>253000</v>
+      </c>
+      <c r="M6" s="6">
+        <v>328000</v>
+      </c>
+      <c r="N6" s="6">
+        <v>357000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6">
+        <v>221000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>209000</v>
+      </c>
+      <c r="G7" s="6">
+        <v>205000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>209000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>211000</v>
+      </c>
+      <c r="J7" s="6">
+        <v>223000</v>
+      </c>
+      <c r="K7" s="6">
+        <v>243000</v>
+      </c>
+      <c r="L7" s="6">
+        <v>262000</v>
+      </c>
+      <c r="M7" s="6">
+        <v>281000</v>
+      </c>
+      <c r="N7" s="6">
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6">
+        <v>174000</v>
+      </c>
+      <c r="F8" s="6">
+        <v>165000</v>
+      </c>
+      <c r="G8" s="6">
+        <v>154000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>152000</v>
+      </c>
+      <c r="I8" s="6">
+        <v>154000</v>
+      </c>
+      <c r="J8" s="6">
+        <v>161000</v>
+      </c>
+      <c r="K8" s="6">
+        <v>178000</v>
+      </c>
+      <c r="L8" s="6">
+        <v>195000</v>
+      </c>
+      <c r="M8" s="6">
+        <v>211000</v>
+      </c>
+      <c r="N8" s="6">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>210000</v>
+      </c>
+      <c r="F9" s="6">
+        <v>197000</v>
+      </c>
+      <c r="G9" s="6">
+        <v>187000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>190000</v>
+      </c>
+      <c r="I9" s="6">
+        <v>199000</v>
+      </c>
+      <c r="J9" s="6">
+        <v>211000</v>
+      </c>
+      <c r="K9" s="6">
+        <v>232000</v>
+      </c>
+      <c r="L9" s="6">
+        <v>248000</v>
+      </c>
+      <c r="M9" s="6">
+        <v>263000</v>
+      </c>
+      <c r="N9" s="6">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6">
+        <v>223990.4862579281</v>
+      </c>
+      <c r="F10" s="6">
+        <v>212990.4862579281</v>
+      </c>
+      <c r="G10" s="6">
+        <v>204988.57142857139</v>
+      </c>
+      <c r="H10" s="6">
+        <v>201993.32697807439</v>
+      </c>
+      <c r="I10" s="6">
+        <v>204000</v>
+      </c>
+      <c r="J10" s="6">
+        <v>215000</v>
+      </c>
+      <c r="K10" s="6">
+        <v>231000</v>
+      </c>
+      <c r="L10" s="6">
+        <v>248000</v>
+      </c>
+      <c r="M10" s="6">
+        <v>268000</v>
+      </c>
+      <c r="N10" s="6">
+        <v>289000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6">
+        <v>218000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>203000</v>
+      </c>
+      <c r="G11" s="6">
+        <v>196000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>200000</v>
+      </c>
+      <c r="I11" s="6">
+        <v>202000</v>
+      </c>
+      <c r="J11" s="6">
+        <v>217000</v>
+      </c>
+      <c r="K11" s="6">
+        <v>236000</v>
+      </c>
+      <c r="L11" s="6">
+        <v>253000</v>
+      </c>
+      <c r="M11" s="6">
+        <v>272000</v>
+      </c>
+      <c r="N11" s="6">
+        <v>298000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6">
+        <v>215000</v>
+      </c>
+      <c r="F12" s="6">
+        <v>204000</v>
+      </c>
+      <c r="G12" s="6">
+        <v>193000</v>
+      </c>
+      <c r="H12" s="6">
+        <v>195000</v>
+      </c>
+      <c r="I12" s="6">
+        <v>198000</v>
+      </c>
+      <c r="J12" s="6">
+        <v>213000</v>
+      </c>
+      <c r="K12" s="6">
+        <v>242000</v>
+      </c>
+      <c r="L12" s="6">
+        <v>259000</v>
+      </c>
+      <c r="M12" s="6">
+        <v>287000</v>
+      </c>
+      <c r="N12" s="6">
+        <v>318000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6">
+        <v>218000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>205000</v>
+      </c>
+      <c r="G13" s="6">
+        <v>199000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>198000</v>
+      </c>
+      <c r="I13" s="6">
+        <v>201000</v>
+      </c>
+      <c r="J13" s="6">
+        <v>214000</v>
+      </c>
+      <c r="K13" s="6">
+        <v>234000</v>
+      </c>
+      <c r="L13" s="6">
+        <v>250000</v>
+      </c>
+      <c r="M13" s="6">
+        <v>267000</v>
+      </c>
+      <c r="N13" s="6">
+        <v>291000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
+        <v>533000</v>
+      </c>
+      <c r="M14" s="6">
+        <v>208000</v>
+      </c>
+      <c r="N14" s="6">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="6">
+        <v>277000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>263000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>250000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>252000</v>
+      </c>
+      <c r="I16" s="6">
+        <v>261000</v>
+      </c>
+      <c r="J16" s="6">
+        <v>278000</v>
+      </c>
+      <c r="K16" s="6">
+        <v>299000</v>
+      </c>
+      <c r="L16" s="6">
+        <v>323000</v>
+      </c>
+      <c r="M16" s="6">
+        <v>342000</v>
+      </c>
+      <c r="N16" s="6">
+        <v>368000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
+        <v>210000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>197000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>187000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>190000</v>
+      </c>
+      <c r="I17" s="6">
+        <v>199000</v>
+      </c>
+      <c r="J17" s="6">
+        <v>211000</v>
+      </c>
+      <c r="K17" s="6">
+        <v>232000</v>
+      </c>
+      <c r="L17" s="6">
+        <v>248000</v>
+      </c>
+      <c r="M17" s="6">
+        <v>267000</v>
+      </c>
+      <c r="N17" s="6">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6">
+        <v>218000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>205000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>199000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>198000</v>
+      </c>
+      <c r="I18" s="6">
+        <v>201000</v>
+      </c>
+      <c r="J18" s="6">
+        <v>214000</v>
+      </c>
+      <c r="K18" s="6">
+        <v>234000</v>
+      </c>
+      <c r="L18" s="6">
+        <v>250000</v>
+      </c>
+      <c r="M18" s="6">
+        <v>248000</v>
+      </c>
+      <c r="N18" s="6">
+        <v>271000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6">
+        <v>200000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>196000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>186000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>182000</v>
+      </c>
+      <c r="I19" s="6">
+        <v>184000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>192000</v>
+      </c>
+      <c r="K19" s="6">
+        <v>209000</v>
+      </c>
+      <c r="L19" s="6">
+        <v>225000</v>
+      </c>
+      <c r="M19" s="6">
+        <v>243000</v>
+      </c>
+      <c r="N19" s="6">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6">
+        <v>241000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>222000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>214000</v>
+      </c>
+      <c r="H20" s="6">
+        <v>216000</v>
+      </c>
+      <c r="I20" s="6">
+        <v>220000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>236000</v>
+      </c>
+      <c r="K20" s="6">
+        <v>252000</v>
+      </c>
+      <c r="L20" s="6">
+        <v>269000</v>
+      </c>
+      <c r="M20" s="6">
+        <v>334000</v>
+      </c>
+      <c r="N20" s="6">
+        <v>354000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6">
+        <v>221000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>209000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>205000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>209000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>211000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>223000</v>
+      </c>
+      <c r="K21" s="6">
+        <v>243000</v>
+      </c>
+      <c r="L21" s="6">
+        <v>262000</v>
+      </c>
+      <c r="M21" s="6">
+        <v>238000</v>
+      </c>
+      <c r="N21" s="6">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
+        <v>533000</v>
+      </c>
+      <c r="M23" s="6">
+        <v>208000</v>
+      </c>
+      <c r="N23" s="6">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6">
+        <v>221000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>209000</v>
+      </c>
+      <c r="G24" s="6">
+        <v>205000</v>
+      </c>
+      <c r="H24" s="6">
+        <v>209000</v>
+      </c>
+      <c r="I24" s="6">
+        <v>211000</v>
+      </c>
+      <c r="J24" s="6">
+        <v>223000</v>
+      </c>
+      <c r="K24" s="6">
+        <v>243000</v>
+      </c>
+      <c r="L24" s="6">
+        <v>262000</v>
+      </c>
+      <c r="M24" s="6">
+        <v>344000</v>
+      </c>
+      <c r="N24" s="6">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6">
+        <v>218000</v>
+      </c>
+      <c r="F27" s="6">
+        <v>203000</v>
+      </c>
+      <c r="G27" s="6">
+        <v>196000</v>
+      </c>
+      <c r="H27" s="6">
+        <v>200000</v>
+      </c>
+      <c r="I27" s="6">
+        <v>202000</v>
+      </c>
+      <c r="J27" s="6">
+        <v>217000</v>
+      </c>
+      <c r="K27" s="6">
+        <v>236000</v>
+      </c>
+      <c r="L27" s="6">
+        <v>253000</v>
+      </c>
+      <c r="M27" s="6">
+        <v>238000</v>
+      </c>
+      <c r="N27" s="6">
+        <v>262000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="6">
+        <v>206000</v>
+      </c>
+      <c r="F29" s="6">
+        <v>194000</v>
+      </c>
+      <c r="G29" s="6">
+        <v>181000</v>
+      </c>
+      <c r="H29" s="6">
+        <v>179000</v>
+      </c>
+      <c r="I29" s="6">
+        <v>187000</v>
+      </c>
+      <c r="J29" s="6">
+        <v>204000</v>
+      </c>
+      <c r="K29" s="6">
+        <v>225000</v>
+      </c>
+      <c r="L29" s="6">
+        <v>242000</v>
+      </c>
+      <c r="M29" s="6">
+        <v>258000</v>
+      </c>
+      <c r="N29" s="6">
+        <v>283000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="6">
+        <v>219000</v>
+      </c>
+      <c r="F30" s="6">
+        <v>206000</v>
+      </c>
+      <c r="G30" s="6">
+        <v>198000</v>
+      </c>
+      <c r="H30" s="6">
+        <v>198000</v>
+      </c>
+      <c r="I30" s="6">
+        <v>203000</v>
+      </c>
+      <c r="J30" s="6">
+        <v>214000</v>
+      </c>
+      <c r="K30" s="6">
+        <v>235000</v>
+      </c>
+      <c r="L30" s="6">
+        <v>252000</v>
+      </c>
+      <c r="M30" s="6">
+        <v>270000</v>
+      </c>
+      <c r="N30" s="6">
+        <v>292000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="6">
+        <v>221000</v>
+      </c>
+      <c r="F31" s="6">
+        <v>209000</v>
+      </c>
+      <c r="G31" s="6">
+        <v>205000</v>
+      </c>
+      <c r="H31" s="6">
+        <v>209000</v>
+      </c>
+      <c r="I31" s="6">
+        <v>211000</v>
+      </c>
+      <c r="J31" s="6">
+        <v>223000</v>
+      </c>
+      <c r="K31" s="6">
+        <v>243000</v>
+      </c>
+      <c r="L31" s="6">
+        <v>262000</v>
+      </c>
+      <c r="M31" s="6">
+        <v>232000</v>
+      </c>
+      <c r="N31" s="6">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="6">
+        <v>174000</v>
+      </c>
+      <c r="F33" s="6">
+        <v>165000</v>
+      </c>
+      <c r="G33" s="6">
+        <v>154000</v>
+      </c>
+      <c r="H33" s="6">
+        <v>152000</v>
+      </c>
+      <c r="I33" s="6">
+        <v>154000</v>
+      </c>
+      <c r="J33" s="6">
+        <v>161000</v>
+      </c>
+      <c r="K33" s="6">
+        <v>178000</v>
+      </c>
+      <c r="L33" s="6">
+        <v>195000</v>
+      </c>
+      <c r="M33" s="6">
+        <v>211000</v>
+      </c>
+      <c r="N33" s="6">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6">
+        <v>163000</v>
+      </c>
+      <c r="K34" s="6">
+        <v>189000</v>
+      </c>
+      <c r="L34" s="6">
+        <v>189000</v>
+      </c>
+      <c r="M34" s="6">
+        <v>189000</v>
+      </c>
+      <c r="N34" s="6">
+        <v>211000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="6">
+        <v>218000</v>
+      </c>
+      <c r="F35" s="6">
+        <v>203000</v>
+      </c>
+      <c r="G35" s="6">
+        <v>196000</v>
+      </c>
+      <c r="H35" s="6">
+        <v>200000</v>
+      </c>
+      <c r="I35" s="6">
+        <v>202000</v>
+      </c>
+      <c r="J35" s="6">
+        <v>217000</v>
+      </c>
+      <c r="K35" s="6">
+        <v>236000</v>
+      </c>
+      <c r="L35" s="6">
+        <v>253000</v>
+      </c>
+      <c r="M35" s="6">
+        <v>257000</v>
+      </c>
+      <c r="N35" s="6">
+        <v>282000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="6">
+        <v>137000</v>
+      </c>
+      <c r="F36" s="6">
+        <v>134000</v>
+      </c>
+      <c r="G36" s="6">
+        <v>127000</v>
+      </c>
+      <c r="H36" s="6">
+        <v>128000</v>
+      </c>
+      <c r="I36" s="6">
+        <v>132000</v>
+      </c>
+      <c r="J36" s="6">
+        <v>132000</v>
+      </c>
+      <c r="K36" s="6">
+        <v>166000</v>
+      </c>
+      <c r="L36" s="6">
+        <v>181000</v>
+      </c>
+      <c r="M36" s="6">
+        <v>201000</v>
+      </c>
+      <c r="N36" s="6">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="6">
+        <v>215000</v>
+      </c>
+      <c r="F37" s="6">
+        <v>204000</v>
+      </c>
+      <c r="G37" s="6">
+        <v>193000</v>
+      </c>
+      <c r="H37" s="6">
+        <v>195000</v>
+      </c>
+      <c r="I37" s="6">
+        <v>198000</v>
+      </c>
+      <c r="J37" s="6">
+        <v>213000</v>
+      </c>
+      <c r="K37" s="6">
+        <v>242000</v>
+      </c>
+      <c r="L37" s="6">
+        <v>259000</v>
+      </c>
+      <c r="M37" s="6">
+        <v>276000</v>
+      </c>
+      <c r="N37" s="6">
+        <v>303000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6">
+        <v>241000</v>
+      </c>
+      <c r="F39" s="6">
+        <v>222000</v>
+      </c>
+      <c r="G39" s="6">
+        <v>214000</v>
+      </c>
+      <c r="H39" s="6">
+        <v>216000</v>
+      </c>
+      <c r="I39" s="6">
+        <v>220000</v>
+      </c>
+      <c r="J39" s="6">
+        <v>236000</v>
+      </c>
+      <c r="K39" s="6">
+        <v>252000</v>
+      </c>
+      <c r="L39" s="6">
+        <v>269000</v>
+      </c>
+      <c r="M39" s="6">
+        <v>288000</v>
+      </c>
+      <c r="N39" s="6">
+        <v>307000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="6">
+        <v>277000</v>
+      </c>
+      <c r="F40" s="6">
+        <v>263000</v>
+      </c>
+      <c r="G40" s="6">
+        <v>250000</v>
+      </c>
+      <c r="H40" s="6">
+        <v>252000</v>
+      </c>
+      <c r="I40" s="6">
+        <v>261000</v>
+      </c>
+      <c r="J40" s="6">
+        <v>278000</v>
+      </c>
+      <c r="K40" s="6">
+        <v>299000</v>
+      </c>
+      <c r="L40" s="6">
+        <v>323000</v>
+      </c>
+      <c r="M40" s="6">
+        <v>342000</v>
+      </c>
+      <c r="N40" s="6">
+        <v>368000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="6">
+        <v>137000</v>
+      </c>
+      <c r="F42" s="6">
+        <v>134000</v>
+      </c>
+      <c r="G42" s="6">
+        <v>127000</v>
+      </c>
+      <c r="H42" s="6">
+        <v>128000</v>
+      </c>
+      <c r="I42" s="6">
+        <v>132000</v>
+      </c>
+      <c r="J42" s="6">
+        <v>132000</v>
+      </c>
+      <c r="K42" s="6">
+        <v>166000</v>
+      </c>
+      <c r="L42" s="6">
+        <v>181000</v>
+      </c>
+      <c r="M42" s="6">
+        <v>201000</v>
+      </c>
+      <c r="N42" s="6">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="6">
+        <v>251000</v>
+      </c>
+      <c r="F43" s="6">
+        <v>236000</v>
+      </c>
+      <c r="G43" s="6">
+        <v>228000</v>
+      </c>
+      <c r="H43" s="6">
+        <v>229000</v>
+      </c>
+      <c r="I43" s="6">
+        <v>237000</v>
+      </c>
+      <c r="J43" s="6">
+        <v>254000</v>
+      </c>
+      <c r="K43" s="6">
+        <v>278000</v>
+      </c>
+      <c r="L43" s="6">
+        <v>298000</v>
+      </c>
+      <c r="M43" s="6">
+        <v>312000</v>
+      </c>
+      <c r="N43" s="6">
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="6">
+        <v>218000</v>
+      </c>
+      <c r="F44" s="6">
+        <v>205000</v>
+      </c>
+      <c r="G44" s="6">
+        <v>199000</v>
+      </c>
+      <c r="H44" s="6">
+        <v>198000</v>
+      </c>
+      <c r="I44" s="6">
+        <v>201000</v>
+      </c>
+      <c r="J44" s="6">
+        <v>214000</v>
+      </c>
+      <c r="K44" s="6">
+        <v>234000</v>
+      </c>
+      <c r="L44" s="6">
+        <v>250000</v>
+      </c>
+      <c r="M44" s="6">
+        <v>283000</v>
+      </c>
+      <c r="N44" s="6">
+        <v>309000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="6">
+        <v>199000</v>
+      </c>
+      <c r="F45" s="6">
+        <v>185000</v>
+      </c>
+      <c r="G45" s="6">
+        <v>178000</v>
+      </c>
+      <c r="H45" s="6">
+        <v>179000</v>
+      </c>
+      <c r="I45" s="6">
+        <v>185000</v>
+      </c>
+      <c r="J45" s="6">
+        <v>200000</v>
+      </c>
+      <c r="K45" s="6">
+        <v>218000</v>
+      </c>
+      <c r="L45" s="6">
+        <v>232000</v>
+      </c>
+      <c r="M45" s="6">
+        <v>276000</v>
+      </c>
+      <c r="N45" s="6">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="6">
+        <v>200000</v>
+      </c>
+      <c r="F46" s="6">
+        <v>196000</v>
+      </c>
+      <c r="G46" s="6">
+        <v>186000</v>
+      </c>
+      <c r="H46" s="6">
+        <v>182000</v>
+      </c>
+      <c r="I46" s="6">
+        <v>184000</v>
+      </c>
+      <c r="J46" s="6">
+        <v>192000</v>
+      </c>
+      <c r="K46" s="6">
+        <v>209000</v>
+      </c>
+      <c r="L46" s="6">
+        <v>225000</v>
+      </c>
+      <c r="M46" s="6">
+        <v>264000</v>
+      </c>
+      <c r="N46" s="6">
+        <v>283000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="6">
+        <v>251000</v>
+      </c>
+      <c r="F47" s="6">
+        <v>236000</v>
+      </c>
+      <c r="G47" s="6">
+        <v>228000</v>
+      </c>
+      <c r="H47" s="6">
+        <v>229000</v>
+      </c>
+      <c r="I47" s="6">
+        <v>237000</v>
+      </c>
+      <c r="J47" s="6">
+        <v>254000</v>
+      </c>
+      <c r="K47" s="6">
+        <v>278000</v>
+      </c>
+      <c r="L47" s="6">
+        <v>298000</v>
+      </c>
+      <c r="M47" s="6">
+        <v>330000</v>
+      </c>
+      <c r="N47" s="6">
+        <v>362000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="6">
+        <v>200000</v>
+      </c>
+      <c r="F48" s="6">
+        <v>196000</v>
+      </c>
+      <c r="G48" s="6">
+        <v>186000</v>
+      </c>
+      <c r="H48" s="6">
+        <v>182000</v>
+      </c>
+      <c r="I48" s="6">
+        <v>184000</v>
+      </c>
+      <c r="J48" s="6">
+        <v>192000</v>
+      </c>
+      <c r="K48" s="6">
+        <v>209000</v>
+      </c>
+      <c r="L48" s="6">
+        <v>225000</v>
+      </c>
+      <c r="M48" s="6">
+        <v>198000</v>
+      </c>
+      <c r="N48" s="6">
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="6">
+        <v>251000</v>
+      </c>
+      <c r="F49" s="6">
+        <v>236000</v>
+      </c>
+      <c r="G49" s="6">
+        <v>228000</v>
+      </c>
+      <c r="H49" s="6">
+        <v>229000</v>
+      </c>
+      <c r="I49" s="6">
+        <v>237000</v>
+      </c>
+      <c r="J49" s="6">
+        <v>254000</v>
+      </c>
+      <c r="K49" s="6">
+        <v>278000</v>
+      </c>
+      <c r="L49" s="6">
+        <v>298000</v>
+      </c>
+      <c r="M49" s="6">
+        <v>298000</v>
+      </c>
+      <c r="N49" s="6">
+        <v>298000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="6">
+        <v>223990.4862579281</v>
+      </c>
+      <c r="F50" s="6">
+        <v>212990.4862579281</v>
+      </c>
+      <c r="G50" s="6">
+        <v>204988.57142857139</v>
+      </c>
+      <c r="H50" s="6">
+        <v>201993.32697807439</v>
+      </c>
+      <c r="I50" s="6">
+        <v>204000</v>
+      </c>
+      <c r="J50" s="6">
+        <v>215000</v>
+      </c>
+      <c r="K50" s="6">
+        <v>231000</v>
+      </c>
+      <c r="L50" s="6">
+        <v>248000</v>
+      </c>
+      <c r="M50" s="6">
+        <v>268000</v>
+      </c>
+      <c r="N50" s="6">
+        <v>289000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="6">
+        <v>206000</v>
+      </c>
+      <c r="F51" s="6">
+        <v>194000</v>
+      </c>
+      <c r="G51" s="6">
+        <v>181000</v>
+      </c>
+      <c r="H51" s="6">
+        <v>179000</v>
+      </c>
+      <c r="I51" s="6">
+        <v>187000</v>
+      </c>
+      <c r="J51" s="6">
+        <v>204000</v>
+      </c>
+      <c r="K51" s="6">
+        <v>225000</v>
+      </c>
+      <c r="L51" s="6">
+        <v>242000</v>
+      </c>
+      <c r="M51" s="6">
+        <v>258000</v>
+      </c>
+      <c r="N51" s="6">
+        <v>283000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="6">
+        <v>215000</v>
+      </c>
+      <c r="F52" s="6">
+        <v>204000</v>
+      </c>
+      <c r="G52" s="6">
+        <v>193000</v>
+      </c>
+      <c r="H52" s="6">
+        <v>195000</v>
+      </c>
+      <c r="I52" s="6">
+        <v>198000</v>
+      </c>
+      <c r="J52" s="6">
+        <v>213000</v>
+      </c>
+      <c r="K52" s="6">
+        <v>242000</v>
+      </c>
+      <c r="L52" s="6">
+        <v>259000.00000000009</v>
+      </c>
+      <c r="M52" s="6">
+        <v>281000</v>
+      </c>
+      <c r="N52" s="6">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="6">
+        <v>199000</v>
+      </c>
+      <c r="F53" s="6">
+        <v>185000</v>
+      </c>
+      <c r="G53" s="6">
+        <v>178000</v>
+      </c>
+      <c r="H53" s="6">
+        <v>179000</v>
+      </c>
+      <c r="I53" s="6">
+        <v>185000</v>
+      </c>
+      <c r="J53" s="6">
+        <v>200000</v>
+      </c>
+      <c r="K53" s="6">
+        <v>218000</v>
+      </c>
+      <c r="L53" s="6">
+        <v>232000</v>
+      </c>
+      <c r="M53" s="6">
+        <v>271000</v>
+      </c>
+      <c r="N53" s="6">
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="6">
+        <v>218000</v>
+      </c>
+      <c r="F54" s="6">
+        <v>205000</v>
+      </c>
+      <c r="G54" s="6">
+        <v>199000</v>
+      </c>
+      <c r="H54" s="6">
+        <v>198000</v>
+      </c>
+      <c r="I54" s="6">
+        <v>201000</v>
+      </c>
+      <c r="J54" s="6">
+        <v>214000</v>
+      </c>
+      <c r="K54" s="6">
+        <v>234000</v>
+      </c>
+      <c r="L54" s="6">
+        <v>250000</v>
+      </c>
+      <c r="M54" s="6">
+        <v>276000</v>
+      </c>
+      <c r="N54" s="6">
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="6">
+        <v>199000</v>
+      </c>
+      <c r="F55" s="6">
+        <v>185000</v>
+      </c>
+      <c r="G55" s="6">
+        <v>178000</v>
+      </c>
+      <c r="H55" s="6">
+        <v>179000</v>
+      </c>
+      <c r="I55" s="6">
+        <v>185000</v>
+      </c>
+      <c r="J55" s="6">
+        <v>200000</v>
+      </c>
+      <c r="K55" s="6">
+        <v>218000</v>
+      </c>
+      <c r="L55" s="6">
+        <v>232000</v>
+      </c>
+      <c r="M55" s="6">
+        <v>225000</v>
+      </c>
+      <c r="N55" s="6">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="6">
+        <v>251000</v>
+      </c>
+      <c r="F58" s="6">
+        <v>236000</v>
+      </c>
+      <c r="G58" s="6">
+        <v>227999.99999999991</v>
+      </c>
+      <c r="H58" s="6">
+        <v>229000.00000000009</v>
+      </c>
+      <c r="I58" s="6">
+        <v>237000</v>
+      </c>
+      <c r="J58" s="6">
+        <v>254000</v>
+      </c>
+      <c r="K58" s="6">
+        <v>277999.99999999988</v>
+      </c>
+      <c r="L58" s="6">
+        <v>298000</v>
+      </c>
+      <c r="M58" s="6">
+        <v>321000</v>
+      </c>
+      <c r="N58" s="6">
+        <v>351000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="6">
+        <v>272000</v>
+      </c>
+      <c r="F59" s="6">
+        <v>245000</v>
+      </c>
+      <c r="G59" s="6">
+        <v>243000</v>
+      </c>
+      <c r="H59" s="6">
+        <v>243000</v>
+      </c>
+      <c r="I59" s="6">
+        <v>257000</v>
+      </c>
+      <c r="J59" s="6">
+        <v>248000</v>
+      </c>
+      <c r="K59" s="6">
+        <v>281000</v>
+      </c>
+      <c r="L59" s="6">
+        <v>308000</v>
+      </c>
+      <c r="M59" s="6">
+        <v>341000</v>
+      </c>
+      <c r="N59" s="6">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="6">
+        <v>200000</v>
+      </c>
+      <c r="F60" s="6">
+        <v>196000</v>
+      </c>
+      <c r="G60" s="6">
+        <v>186000</v>
+      </c>
+      <c r="H60" s="6">
+        <v>182000</v>
+      </c>
+      <c r="I60" s="6">
+        <v>184000</v>
+      </c>
+      <c r="J60" s="6">
+        <v>192000</v>
+      </c>
+      <c r="K60" s="6">
+        <v>209000</v>
+      </c>
+      <c r="L60" s="6">
+        <v>225000</v>
+      </c>
+      <c r="M60" s="6">
+        <v>309000</v>
+      </c>
+      <c r="N60" s="6">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="6">
+        <v>251000</v>
+      </c>
+      <c r="F61" s="6">
+        <v>236000</v>
+      </c>
+      <c r="G61" s="6">
+        <v>228000</v>
+      </c>
+      <c r="H61" s="6">
+        <v>229000</v>
+      </c>
+      <c r="I61" s="6">
+        <v>237000</v>
+      </c>
+      <c r="J61" s="6">
+        <v>254000</v>
+      </c>
+      <c r="K61" s="6">
+        <v>278000</v>
+      </c>
+      <c r="L61" s="6">
+        <v>298000</v>
+      </c>
+      <c r="M61" s="6">
+        <v>321000</v>
+      </c>
+      <c r="N61" s="6">
+        <v>353000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="6">
+        <v>199000</v>
+      </c>
+      <c r="F63" s="6">
+        <v>185000</v>
+      </c>
+      <c r="G63" s="6">
+        <v>178000</v>
+      </c>
+      <c r="H63" s="6">
+        <v>179000</v>
+      </c>
+      <c r="I63" s="6">
+        <v>185000</v>
+      </c>
+      <c r="J63" s="6">
+        <v>200000</v>
+      </c>
+      <c r="K63" s="6">
+        <v>218000</v>
+      </c>
+      <c r="L63" s="6">
+        <v>232000</v>
+      </c>
+      <c r="M63" s="6">
+        <v>250000</v>
+      </c>
+      <c r="N63" s="6">
+        <v>272000</v>
       </c>
     </row>
   </sheetData>
